--- a/teachertimetable.xlsx
+++ b/teachertimetable.xlsx
@@ -7,31 +7,33 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VINEETHA KR" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR HUBERT SHANTHAN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VIJAY ARPUTHARAJ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR KIRUBANAND V B" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR FABIOLA HAZEL POHRMEN" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CHANTI" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR ROHINI V" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANJUNATHA HIREMATH" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SHAMINE" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR LOKESHWARAN" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAMAMURTHY B" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MOHANA PRIYA T" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SAGAYA AURELIA P" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SMERA" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANASA" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR BEAULAH SOUNDARABAI P" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RESMI KR" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAN K N" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANGEETHA GOVINDA" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NISMON RIO R" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AROKIA PAUL RAJAN R" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAINA" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CYNTHIA" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SREEJA" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANDEEP J" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SREEJA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAMAMURTHY B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR ROHINI V" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VINEETHA KR" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AROKIA PAUL RAJAN R" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANJUNATHA HIREMATH" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANASA" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR FABIOLA HAZEL POHRMEN" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AMRUTHA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SMERA" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CYNTHIA" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NEWBEGIN" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANGEETHA GOVINDA" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR HUBERT SHANTHAN" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NISMON RIO R" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR LOKESHWARAN" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MOHANA PRIYA T" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RESMI KR" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SAGAYA AURELIA P" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VIJAY ARPUTHARAJ" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR BEAULAH SOUNDARABAI P" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANDEEP J" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SHAMINE" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR KIRUBANAND V B" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAINA" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CHANTI" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAN KN" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,17 +524,18 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -542,13 +545,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -560,28 +562,28 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -623,7 +625,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -635,7 +637,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -645,7 +647,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -655,7 +657,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -672,13 +674,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)
- (5BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -688,7 +689,7 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -710,13 +711,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)
- (5BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -758,8 +758,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)
- (5CME)                     </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -786,7 +785,8 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -796,13 +796,13 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)
- (5CME)                     </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -811,6 +811,45 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CS)                             </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -827,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,7 +924,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -895,8 +934,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)
- (3BCA B)                </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -923,18 +961,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)
- (3BCA B)                </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -961,8 +998,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -972,7 +1008,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -999,8 +1035,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -1010,7 +1045,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1025,7 +1060,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
     </row>
@@ -1037,27 +1072,27 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1074,7 +1109,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1089,7 +1124,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -1111,13 +1146,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1127,7 +1161,7 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -1149,23 +1183,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -1174,6 +1207,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CS)                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -1190,374 +1260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Hour 1</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (3BCA B)
- (5BCA A)
- (5BCA A)
- (5BCA B)
- (5BCA B)</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Hour 2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PYTHON (3CM)                       </t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (3BCA B)
- (5BCA A)
- (5BCA A)
- (5BCA B)
- (5BCA B)</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Hour 3</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                             </t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Hour 4</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PYTHON (3CM)                       </t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PYTHON (3CM)
- (3CM)                </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                             </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Hour 5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PYTHON (3CM)
- (3CM)                </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                             </t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Hour 6</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                             </t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Hour 7</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                             </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Hour 8</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                             </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1615,28 +1318,29 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -1653,28 +1357,27 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -1701,7 +1404,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1728,17 +1431,19 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1765,7 +1470,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1775,12 +1480,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -1802,7 +1507,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1817,7 +1522,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -1839,24 +1544,22 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -1878,24 +1581,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -1904,6 +1605,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -1914,13 +1652,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1978,19 +1716,21 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
@@ -1998,12 +1738,14 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
     </row>
@@ -2015,19 +1757,19 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
@@ -2035,12 +1777,14 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
     </row>
@@ -2099,12 +1843,14 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2126,8 +1872,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2137,12 +1882,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2164,8 +1909,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -2175,7 +1919,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2202,13 +1946,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -2240,18 +1983,17 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -2265,6 +2007,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CS)                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -2275,13 +2054,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2339,7 +2118,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -2349,7 +2128,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -2376,17 +2155,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -2413,8 +2192,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)
- (5CME)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -2424,8 +2202,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -2452,8 +2229,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)
- (5CME)                    </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -2463,8 +2239,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2479,7 +2254,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2491,7 +2266,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2501,8 +2276,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve">IWT (1BCA B)                       </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -2512,7 +2286,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -2529,7 +2303,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">IWT (1BCA B)                       </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -2539,8 +2313,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2604,22 +2377,23 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">IWT (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -2628,6 +2402,44 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IWT (1BCA B)
+ (1BCA B)             </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -2638,13 +2450,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2712,22 +2524,23 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)
+ (3BCA B)          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2749,12 +2562,13 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">PYTHON (3BCA B)
+ (3BCA B)          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2786,8 +2600,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -2802,7 +2615,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2814,28 +2627,28 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -2852,24 +2665,23 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)
- (5BCA B)              </t>
+          <t xml:space="preserve">WT (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2891,24 +2703,22 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)
- (5BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -2991,6 +2801,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -3001,13 +2848,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3065,18 +2912,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)
- (3CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -3086,7 +2932,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -3103,18 +2949,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)
- (3CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3124,7 +2969,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -3141,7 +2986,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -3151,7 +2996,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -3178,17 +3023,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)                          </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)                          </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">PSD (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3198,12 +3044,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
     </row>
@@ -3220,17 +3066,18 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -3257,7 +3104,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3267,7 +3114,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -3294,19 +3141,17 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -3328,24 +3173,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3354,6 +3197,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -3364,13 +3244,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3428,29 +3308,27 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -3467,29 +3345,27 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -3516,7 +3392,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -3543,7 +3419,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -3553,7 +3429,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3563,7 +3439,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3622,7 +3498,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3632,7 +3508,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -3664,13 +3540,12 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -3692,23 +3567,24 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3717,6 +3593,45 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -3727,13 +3642,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3791,8 +3706,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)
- (3CM)                      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -3802,12 +3716,13 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)
+ (3BCA A)          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -3829,8 +3744,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)
- (3CM)                      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -3840,12 +3754,13 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)
+ (3BCA A)          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -3867,8 +3782,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -3905,13 +3819,12 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">WAD (1CM)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -3926,7 +3839,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3943,28 +3856,27 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">WAD (1CM)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3981,8 +3893,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4019,12 +3930,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -4056,30 +3967,69 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (1CM)
+ (1CM)                   </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (1CM)
+ (1CM)                   </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CS)                             </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -4090,13 +4040,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4154,27 +4104,29 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)
+ (3BCA B)          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -4191,22 +4143,24 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)
+ (3BCA B)          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -4228,10 +4182,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)
- (1CM)
- (5CME)
- (5CME)   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -4268,10 +4219,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)
- (1CM)
- (5CME)
- (5CME)   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -4291,7 +4239,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -4308,8 +4256,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4319,7 +4266,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -4329,7 +4276,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -4346,8 +4293,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4357,7 +4303,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -4389,18 +4335,17 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -4422,23 +4367,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -4447,6 +4391,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CS)                             </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -4457,13 +4438,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4521,7 +4502,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -4531,20 +4512,17 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)
- (5BCA A)
- (5BCA A)      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -4561,7 +4539,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -4571,20 +4549,17 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)
- (5BCA A)
- (5BCA A)      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -4601,24 +4576,22 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)
- (5CME)
- (5CME)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -4640,14 +4613,12 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)
- (5CME)
- (5CME)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -4679,12 +4650,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -4694,7 +4665,7 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -4716,7 +4687,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4731,7 +4702,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4790,17 +4761,18 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -4814,6 +4786,44 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -4824,13 +4834,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4888,17 +4898,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -4925,17 +4935,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">PYTHON (3CM)                       </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -4962,7 +4972,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -4972,8 +4982,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -4983,12 +4992,12 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -5000,18 +5009,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3CM)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3CM)
+ (3CM)                </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5021,7 +5030,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -5043,12 +5052,13 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">PYTHON (3CM)
+ (3CM)                </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -5058,7 +5068,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -5085,7 +5095,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -5112,13 +5122,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -5150,13 +5159,12 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -5166,7 +5174,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -5175,6 +5183,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CS)                             </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -5185,13 +5230,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5249,33 +5294,37 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)
- (3BCA B)                </t>
+          <t xml:space="preserve">PYTHON (3BCA A)
+ (3BCA A)          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
     </row>
@@ -5287,7 +5336,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -5297,23 +5346,25 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)
- (3BCA B)                </t>
+          <t xml:space="preserve">PYTHON (3BCA A)
+ (3BCA A)          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
     </row>
@@ -5335,8 +5386,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -5346,12 +5396,12 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -5363,7 +5413,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5373,13 +5423,14 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -5401,22 +5452,23 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve">PRJ (5BCA A)
+ (5BCA A)             </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)                       </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -5438,22 +5490,23 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)
+ (5BCA A)             </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5475,12 +5528,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -5517,7 +5570,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -5536,6 +5589,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -5546,13 +5636,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5620,7 +5710,8 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">WAD (3CS)
+ (3CS)                   </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -5647,17 +5738,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">WAD (3CS)
+ (3CS)                   </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5694,8 +5786,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -5722,18 +5813,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (3CS)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">WAD (3CS)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5743,12 +5833,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -5765,13 +5855,12 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -5781,7 +5870,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -5798,7 +5887,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -5808,8 +5897,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -5846,7 +5934,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -5878,17 +5966,18 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -5897,6 +5986,44 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (1CS)
+ (1CS)                   </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -5907,13 +6034,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5971,24 +6098,22 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -6010,17 +6135,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -6057,8 +6182,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -6085,20 +6209,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -6125,7 +6246,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6135,13 +6256,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6163,7 +6283,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -6173,13 +6293,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6211,7 +6330,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -6238,7 +6357,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -6253,7 +6372,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -6262,6 +6381,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CS)                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -6272,13 +6428,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6336,18 +6492,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -6374,18 +6529,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -6412,8 +6566,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -6423,7 +6576,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -6450,8 +6603,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -6488,22 +6640,23 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">PRJ (5BCA B)
+ (5BCA B)             </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">PRJ (5BCA B)                       </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6535,12 +6688,13 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)
+ (5BCA B)             </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6562,8 +6716,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -6573,13 +6726,12 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)
- (5CME)                     </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -6601,8 +6753,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -6612,8 +6763,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)
- (5CME)                     </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -6627,6 +6777,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -6637,13 +6824,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6701,12 +6888,12 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -6738,12 +6925,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -6775,10 +6962,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)
- (1CM)
- (5CME)
- (5CME)   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -6815,20 +6999,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)
- (1CM)
- (5CME)
- (5CME)   </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -6855,17 +7036,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -6892,7 +7073,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">IWT (1BCA A)                       </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -6929,13 +7110,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -6967,8 +7147,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1CS)                   </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -6983,7 +7162,8 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">IWT (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -6992,6 +7172,44 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IWT (1BCA A)                       </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IWT (1BCA A)
+ (1BCA A)             </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -7002,390 +7220,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="65" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Hour 1</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>GA (5BCA A)
- (5BCA A)
- (5BCA A)
-GA (5BCA B)
- (5BCA B)
- (5BCA B)</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Hour 2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>GA (5BCA A)
- (5BCA A)
- (5BCA A)
-GA (5BCA B)
- (5BCA B)
- (5BCA B)</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Hour 3</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                           </t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Hour 4</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                           </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Hour 5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PRJ (5BCA A)
- (5BCA A)             </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PRJ (5BCA A)                       </t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                           </t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Hour 6</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PRJ (5BCA A)
- (5BCA A)             </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PRJ (5BCA A)                       </t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                           </t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Hour 7</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                           </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Hour 8</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                           </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7443,8 +7284,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)
- (3CM)                      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -7454,7 +7294,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -7464,7 +7304,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -7481,18 +7321,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)
- (3CM)                      </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -7502,7 +7341,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -7556,7 +7395,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -7581,7 +7420,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
     </row>
@@ -7593,8 +7432,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -7604,7 +7442,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -7614,7 +7452,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -7631,8 +7469,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -7642,7 +7479,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -7669,24 +7506,22 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -7708,24 +7543,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -7734,6 +7567,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -7744,13 +7614,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7808,17 +7678,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -7828,7 +7698,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -7845,17 +7715,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -7865,7 +7735,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -7882,10 +7752,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)
- (1CM)
- (5CME)
- (5CME)   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -7895,8 +7762,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -7923,26 +7789,22 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)
- (1CM)
- (5CME)
- (5CME)   </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -7964,12 +7826,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -8016,7 +7878,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -8053,7 +7915,7 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -8075,22 +7937,23 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -8099,6 +7962,44 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -8109,13 +8010,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8173,19 +8074,20 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
@@ -8193,7 +8095,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -8210,17 +8112,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (3CS)                             </t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -8247,22 +8150,22 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -8284,7 +8187,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -8304,7 +8207,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -8321,8 +8224,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -8332,17 +8234,17 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -8359,8 +8261,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -8370,7 +8271,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -8397,13 +8298,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -8435,23 +8335,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -8460,6 +8359,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CS)                             </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -8470,13 +8406,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8534,7 +8470,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -8544,9 +8480,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)
- (3BCA B)
- (3CS)         </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -8556,7 +8490,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -8573,7 +8507,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -8583,9 +8517,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)
- (3BCA B)
- (3CS)         </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -8595,7 +8527,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -8696,13 +8628,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -8734,13 +8665,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)
- (5BCA B)                </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -8762,7 +8692,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -8772,7 +8702,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -8799,30 +8729,67 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1CS)                             </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -8833,13 +8800,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8897,18 +8864,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -8918,7 +8884,8 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -8935,28 +8902,28 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -8973,8 +8940,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -8984,7 +8950,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -8999,7 +8965,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
     </row>
@@ -9011,8 +8977,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -9022,7 +8987,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -9032,7 +8997,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -9049,22 +9014,23 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)
+ (5BCA A)              </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -9086,12 +9052,13 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)
+ (5BCA A)              </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9133,13 +9100,12 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -9161,7 +9127,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -9171,13 +9137,12 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)
- (1BCA B)                </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -9186,6 +9151,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CS)                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -9196,13 +9198,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9215,7 +9217,7 @@
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -9260,7 +9262,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -9270,7 +9272,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -9280,11 +9282,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)
- (5BCA A)
- (5BCA A)
- (5BCA B)
- (5BCA B)</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -9301,7 +9299,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -9311,7 +9309,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -9321,11 +9319,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)
- (5BCA A)
- (5BCA A)
- (5BCA B)
- (5BCA B)</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -9362,7 +9356,7 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -9379,7 +9373,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -9389,7 +9383,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -9399,12 +9393,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                             </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
     </row>
@@ -9421,23 +9415,22 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)
- (5BCA B)             </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -9454,28 +9447,27 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)
- (5BCA B)             </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -9512,7 +9504,7 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -9529,17 +9521,18 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -9549,10 +9542,1640 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSD (1BCA B)
+ (1BCA B)             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Hour 1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hour 3</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (5CME)                            </t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DCF (1CM)                          </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (5CME)                            </t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DCF (1CM)                          </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DCF (1CM)                          </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Hour 7</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Hour 8</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Hour 1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hour 3</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (5BCA B)
+ (5BCA B)              </t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (3BCA A)
+ (3BCA A)              </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (5BCA B)
+ (5BCA B)              </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (3BCA A)
+ (3BCA A)              </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Hour 7</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Hour 8</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Hour 1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (3BCA B)                          </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (3BCA B)                          </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hour 3</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (5CME)                            </t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (5CME)                            </t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (3BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (1CM)                          </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (3BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Hour 7</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Hour 8</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (1CM)
+ (1CM)                   </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (1CM)                          </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (1CM)
+ (1CM)                   </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Hour 1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL (5BCA A)
+MUL (5BCA B)          </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL (5BCA A)
+MUL (5BCA B)          </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (3BCA B)                          </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (3BCA B)                          </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hour 3</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL (5BCA A)
+MUL (5BCA B)          </t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL (5BCA A)
+MUL (5BCA B)          </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DA (5CME)
+ (5CME)                  </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DA (5CME)                          </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DA (5CME)                          </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (3BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DA (5CME)
+ (5CME)                  </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DA (5CME)                          </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (3BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Hour 7</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Hour 8</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>

--- a/teachertimetable.xlsx
+++ b/teachertimetable.xlsx
@@ -7,33 +7,34 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SREEJA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAMAMURTHY B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR ROHINI V" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VINEETHA KR" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANDEEP J" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANJUNATHA HIREMATH" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VINEETHA KR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AMRUTHA" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AROKIA PAUL RAJAN R" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANJUNATHA HIREMATH" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANASA" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR FABIOLA HAZEL POHRMEN" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AMRUTHA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SMERA" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CYNTHIA" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NEWBEGIN" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANGEETHA GOVINDA" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR HUBERT SHANTHAN" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NISMON RIO R" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR LOKESHWARAN" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MOHANA PRIYA T" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RESMI KR" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SAGAYA AURELIA P" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VIJAY ARPUTHARAJ" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR BEAULAH SOUNDARABAI P" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANDEEP J" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SHAMINE" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR KIRUBANAND V B" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAINA" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CHANTI" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR ROHINI V" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NISMON RIO R" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NEWBEGIN" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RESMI KR" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANGEETHA GOVINDA" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SREEJA" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANASA" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAKUMAR K" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR FABIOLA HAZEL POHRMEN" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VIJAY ARPUTHARAJ" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAMAMURTHY B" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR LOKESHWARAN" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CHANTI" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CYNTHIA" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SMERA" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR KIRUBANAND V B" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SAGAYA AURELIA P" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAINA" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MOHANA PRIYA T" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR HUBERT SHANTHAN" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SHAMINE" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAN KN" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR BEAULAH SOUNDARABAI P" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -524,18 +525,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -562,18 +562,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -637,7 +636,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -647,7 +646,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -657,7 +656,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -674,17 +673,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -716,7 +715,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -726,7 +725,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -785,24 +784,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -824,24 +821,22 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -949,7 +944,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -961,12 +956,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -986,7 +981,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -1060,7 +1055,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1072,27 +1067,27 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
-        </is>
-      </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1109,22 +1104,22 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">IWT (1BCA B)                       </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA B)                          </t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -1183,22 +1178,23 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">IWT (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -1220,22 +1216,23 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">IWT (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">IWT (1BCA B)                       </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -1318,24 +1315,23 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -1357,12 +1353,13 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1431,19 +1428,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1458,7 +1454,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
     </row>
@@ -1470,7 +1466,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1480,7 +1476,8 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1490,7 +1487,8 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1507,12 +1505,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1522,12 +1520,13 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1581,17 +1580,17 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -1618,17 +1617,17 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1716,19 +1715,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -1738,14 +1735,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1757,7 +1752,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -1767,7 +1762,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -1777,14 +1772,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1833,7 +1826,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -1843,24 +1836,22 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
     </row>
@@ -1872,27 +1863,29 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)
+ (5BCA B)              </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1909,22 +1902,24 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)
+ (5BCA B)              </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -1983,7 +1978,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1993,7 +1988,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -2020,7 +2015,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -2030,7 +2025,7 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -2118,7 +2113,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -2128,7 +2123,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -2138,12 +2133,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -2155,7 +2150,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -2165,7 +2160,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -2175,12 +2170,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -2229,12 +2224,12 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -2266,17 +2261,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -2303,7 +2298,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -2377,23 +2372,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -2415,23 +2409,22 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -2514,23 +2507,22 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -2540,7 +2532,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -2552,23 +2544,22 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2578,7 +2569,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -2627,23 +2618,22 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2665,18 +2655,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -2703,17 +2692,17 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2777,22 +2766,23 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)                          </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -2814,12 +2804,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -2829,7 +2819,8 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -2912,32 +2903,36 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)
+ (3BCA A)          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
     </row>
@@ -2949,22 +2944,24 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)
+ (3BCA A)          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2974,7 +2971,8 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)
+ (5BCA A)             </t>
         </is>
       </c>
     </row>
@@ -3011,7 +3009,8 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)
+ (5BCA A)             </t>
         </is>
       </c>
     </row>
@@ -3023,7 +3022,9 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)  </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -3033,23 +3034,24 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -3061,7 +3063,9 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)  </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3071,8 +3075,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3104,7 +3107,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">PRJ (5BCA A)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3119,7 +3122,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)                       </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3173,17 +3176,17 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -3210,17 +3213,17 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -3308,7 +3311,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -3318,7 +3321,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -3328,12 +3331,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
@@ -3345,7 +3348,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -3355,7 +3358,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">PYTHON (3CM)                       </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3365,12 +3368,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
@@ -3419,17 +3422,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">PYTHON (3CM)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3CM)
+ (3CM)                </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3439,7 +3443,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3461,17 +3465,18 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3CM)
+ (3CM)                </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -3498,7 +3503,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3508,7 +3513,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -3567,24 +3572,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3606,24 +3609,22 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -3716,13 +3717,12 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -3754,13 +3754,12 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -3770,7 +3769,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -3807,7 +3806,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -3819,17 +3818,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)                          </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,13 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)                          </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3876,7 +3877,8 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3893,12 +3895,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3908,12 +3910,13 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3972,8 +3975,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -3983,7 +3985,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -4010,8 +4012,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -4021,7 +4022,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -4104,29 +4105,27 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -4143,24 +4142,22 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -4170,7 +4167,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -4207,7 +4204,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -4219,27 +4216,27 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -4256,7 +4253,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4266,7 +4263,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -4276,7 +4273,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -4293,7 +4290,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4303,12 +4300,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4367,22 +4364,23 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -4404,22 +4402,23 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -4502,22 +4501,24 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -4527,7 +4528,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -4539,12 +4540,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -4564,7 +4565,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -4613,12 +4614,13 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -4650,12 +4652,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -4687,12 +4689,13 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -4702,7 +4705,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4761,18 +4764,17 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -4799,13 +4801,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -4898,17 +4899,18 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -4935,17 +4937,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3CM)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5009,18 +5012,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3CM)                       </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3CM)
- (3CM)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5030,7 +5033,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -5052,13 +5055,13 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3CM)
- (3CM)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -5068,7 +5071,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -5090,17 +5093,17 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5159,7 +5162,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -5174,7 +5177,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -5196,7 +5199,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -5211,7 +5214,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -5294,37 +5297,32 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -5346,25 +5344,22 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -5423,14 +5418,12 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -5452,23 +5445,22 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)
- (5BCA A)             </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                       </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -5490,7 +5482,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -5500,13 +5492,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)
- (5BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                       </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5710,8 +5701,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)
- (3CS)                   </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -5721,12 +5711,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -5748,8 +5738,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)
- (3CS)                   </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5759,12 +5748,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -5813,17 +5802,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5833,7 +5822,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -5860,17 +5849,17 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -5887,7 +5876,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)                          </t>
+          <t xml:space="preserve">IWT (1BCA A)                       </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -5897,12 +5886,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA B)                          </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5966,7 +5955,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -5976,8 +5965,8 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">IWT (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -6009,13 +5998,13 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">IWT (1BCA A)                       </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">IWT (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -6098,17 +6087,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -6135,17 +6124,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -6160,7 +6149,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -6197,7 +6186,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -6219,7 +6208,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -6246,7 +6235,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -6256,12 +6245,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6283,7 +6272,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -6298,7 +6287,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6357,22 +6346,23 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -6394,22 +6384,23 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -6502,7 +6493,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -6539,22 +6530,22 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -6591,7 +6582,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -6603,7 +6594,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -6640,23 +6631,22 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)
- (5BCA B)             </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)                       </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6688,13 +6678,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)
- (5BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)                       </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6888,7 +6877,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -6898,12 +6887,13 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)
+ (3BCA A)          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -6925,7 +6915,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -6935,12 +6925,13 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)
+ (3BCA A)          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -6950,7 +6941,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -6987,7 +6978,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -6999,17 +6990,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -7036,27 +7027,27 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (3CM)                             </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (1CM)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -7073,7 +7064,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -7088,7 +7079,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -7147,12 +7138,13 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">WAD (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">WAD (1CM)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -7162,8 +7154,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -7185,23 +7176,23 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">WAD (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -7294,17 +7285,18 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">PYTHON (3BCA B)
+ (3BCA B)          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -7321,27 +7313,28 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">PYTHON (3BCA B)
+ (3BCA B)          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -7395,22 +7388,23 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -7420,7 +7414,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -7432,27 +7426,28 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">WT (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -7469,27 +7464,27 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -7553,12 +7548,12 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -7590,12 +7585,12 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -7678,7 +7673,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -7688,7 +7683,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -7698,7 +7693,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -7715,7 +7710,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -7725,7 +7720,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -7735,12 +7730,13 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)
+ (5BCA B)             </t>
         </is>
       </c>
     </row>
@@ -7777,7 +7773,8 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)
+ (5BCA B)             </t>
         </is>
       </c>
     </row>
@@ -7789,22 +7786,22 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -7826,7 +7823,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -7836,12 +7833,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -7868,7 +7865,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -7878,12 +7875,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)                       </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -7937,23 +7934,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -7975,13 +7971,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -7991,7 +7986,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -8085,7 +8080,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -8123,7 +8118,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -8187,17 +8182,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -8207,7 +8203,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -8224,17 +8220,18 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -8244,7 +8241,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -8261,17 +8258,17 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -8335,22 +8332,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -8372,22 +8369,420 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Hour 1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (3CS)
+ (3CS)                   </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (3CS)
+ (3CS)                   </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (5BCA A)                          </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hour 3</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (5BCA A)                          </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (3CS)                          </t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (3CS)                          </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (1CS)                          </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (5BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (5BCA A)                          </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Hour 7</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Hour 8</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (1CS)                          </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (1CS)
+ (1CS)                   </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (1CS)
+ (1CS)                   </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -8470,7 +8865,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -8480,7 +8875,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -8490,7 +8885,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -8507,7 +8902,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -8517,7 +8912,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -8527,7 +8922,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -8581,7 +8976,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A)                        </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -8591,7 +8986,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -8601,12 +8996,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
     </row>
@@ -8618,27 +9013,29 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A)                        </t>
+          <t xml:space="preserve">MA (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">MA (5BCA A)
+ (5BCA A)              </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -8655,22 +9052,24 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">MA (5BCA A)
+ (5BCA A)              </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -8739,12 +9138,12 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -8776,12 +9175,12 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -8874,23 +9273,24 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MUL (5BCA A)
+MUL (5BCA B)          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MUL (5BCA A)
+MUL (5BCA B)          </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
@@ -8912,23 +9312,22 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
@@ -8965,7 +9364,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -8977,12 +9376,13 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MUL (5BCA A)
+MUL (5BCA B)          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -8997,7 +9397,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -9014,23 +9414,23 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)
- (5BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">DA (5CME)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">DA (5CME)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">DA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -9052,13 +9452,13 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)
- (5BCA A)              </t>
+          <t xml:space="preserve">MUL (5BCA A)
+MUL (5BCA B)          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9068,7 +9468,8 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -9127,7 +9528,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">DA (5CME)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -9137,12 +9538,12 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -9164,7 +9565,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -9174,12 +9575,12 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -9262,7 +9663,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -9272,7 +9673,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -9299,7 +9700,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -9309,7 +9710,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -9324,7 +9725,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -9361,7 +9762,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -9373,7 +9774,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -9393,7 +9794,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -9415,22 +9816,22 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (3BCA B)                          </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -9447,22 +9848,22 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (3BCA B)                          </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">PSD (1BCA B)                       </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -9521,23 +9922,23 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
           <t xml:space="preserve">PSD (1BCA B)
  (1BCA B)             </t>
         </is>
       </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
+        </is>
+      </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -9559,23 +9960,23 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
           <t xml:space="preserve">PSD (1BCA B)
  (1BCA B)             </t>
         </is>
       </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -9658,18 +10059,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -9696,18 +10096,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -9722,7 +10121,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -9759,7 +10158,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -9771,7 +10170,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">OS (3BCA A)                        </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -9781,7 +10180,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">OS (3BCA A)                        </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -9808,12 +10207,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -9823,12 +10222,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA A)                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -9850,7 +10249,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9860,12 +10259,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -9919,13 +10318,12 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -9935,7 +10333,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -9957,13 +10355,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -9973,7 +10370,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -10056,17 +10453,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -10076,12 +10473,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -10093,22 +10490,22 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -10155,7 +10552,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -10167,17 +10564,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -10187,12 +10585,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
     </row>
@@ -10204,29 +10602,28 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)
- (5BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">PSD (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -10243,13 +10640,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)
- (5BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -10259,8 +10655,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -10319,22 +10714,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -10356,22 +10751,22 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -10454,12 +10849,13 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -10474,12 +10870,14 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
     </row>
@@ -10491,12 +10889,13 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -10565,7 +10964,9 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)  </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -10575,12 +10976,14 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -10602,27 +11005,29 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)  </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -10639,12 +11044,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -10654,12 +11059,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -10713,7 +11118,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -10723,13 +11128,12 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)                          </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -10751,7 +11155,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -10761,13 +11165,12 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -10850,29 +11253,29 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL (5BCA A)
-MUL (5BCA B)          </t>
+          <t xml:space="preserve">PYTHON (3BCA B)
+ (3BCA B)          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL (5BCA A)
-MUL (5BCA B)          </t>
+          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -10889,27 +11292,29 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)
+ (3BCA B)          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -10963,14 +11368,12 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL (5BCA A)
-MUL (5BCA B)          </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL (5BCA A)
-MUL (5BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -10985,8 +11388,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -11003,28 +11405,27 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)                          </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -11041,12 +11442,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -11056,7 +11457,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -11120,17 +11521,17 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -11157,17 +11558,17 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/teachertimetable.xlsx
+++ b/teachertimetable.xlsx
@@ -7,34 +7,34 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANDEEP J" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANJUNATHA HIREMATH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VINEETHA KR" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AMRUTHA" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AROKIA PAUL RAJAN R" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR ROHINI V" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NISMON RIO R" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NEWBEGIN" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RESMI KR" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANGEETHA GOVINDA" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SREEJA" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANASA" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAKUMAR K" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR FABIOLA HAZEL POHRMEN" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VIJAY ARPUTHARAJ" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAMAMURTHY B" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR LOKESHWARAN" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CHANTI" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CYNTHIA" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SMERA" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR KIRUBANAND V B" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SAGAYA AURELIA P" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAINA" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MOHANA PRIYA T" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR HUBERT SHANTHAN" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SHAMINE" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAN KN" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR BEAULAH SOUNDARABAI P" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR HUBERT SHANTHAN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SHAMINE" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SMERA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANDEEP J" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NEWBEGIN" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SREEJA" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR FABIOLA HAZEL POHRMEN" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANGEETHA GOVINDA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAMAMURTHY B" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VIJAY ARPUTHARAJ" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR LOKESHWARAN" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MOHANA PRIYA T" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR ROHINI V" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NISMON RIO R" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAN KN" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SAGAYA AURELIA P" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CYNTHIA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR KIRUBANAND V B" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAINA" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANJUNATHA HIREMATH" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR BEAULAH SOUNDARABAI P" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAKUMAR K" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RESMI KR" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AMRUTHA" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANASA" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VINEETHA KR" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AROKIA PAUL RAJAN R" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CHANTI" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -520,27 +520,28 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">PY (3BCA B)                        </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -557,27 +558,28 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">PY (3BCA B)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -594,7 +596,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -624,19 +626,19 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -646,7 +648,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -661,29 +663,29 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -705,17 +707,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -742,7 +744,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -779,17 +781,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -799,12 +801,13 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -816,17 +819,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -836,12 +839,13 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -869,7 +873,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -914,7 +918,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -929,29 +933,31 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">PY (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)                        </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -966,29 +972,31 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">PY (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)                       </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -1018,34 +1026,40 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)
+ (5BCA A)             </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)  </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -1055,34 +1069,38 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)
+ (5BCA A)             </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)  </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -1099,12 +1117,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1119,12 +1137,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)                       </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1136,7 +1154,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -1173,18 +1191,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1211,23 +1228,22 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1265,7 +1281,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -1310,28 +1326,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -1348,28 +1363,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -1386,7 +1400,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -1423,12 +1437,12 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -1438,8 +1452,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1454,19 +1467,19 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1476,8 +1489,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1486,158 +1498,160 @@
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>11:45 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DCF (1CS)                          </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1CM)                             </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12:45 PM</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>01:45 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">DCF (1CS)
  (1CS)                   </t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Hour 6</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>02:45 PM</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">DCF (1CS)
  (1CS)                   </t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Hour 7</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Hour 8</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Hour 9</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -1665,7 +1679,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -1710,12 +1724,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -1725,17 +1739,18 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)                        </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -1747,12 +1762,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -1762,29 +1777,31 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">PY (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (1CM)
+ (1CM)                   </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -1814,19 +1831,20 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (1CM)
+ (1CM)                   </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -1846,69 +1864,66 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">WAD (1CM)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)
- (5BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1918,8 +1933,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)
- (5BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -1936,7 +1950,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -1973,17 +1987,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (1CM)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -2010,12 +2024,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -2063,7 +2077,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -2108,7 +2122,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -2123,7 +2137,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -2133,19 +2147,19 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -2160,7 +2174,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -2170,19 +2184,19 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -2212,19 +2226,19 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA A)                        </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -2234,7 +2248,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA A)                        </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2249,14 +2263,14 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -2266,7 +2280,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA A)                        </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -2281,7 +2295,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -2293,7 +2307,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -2318,7 +2332,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -2330,7 +2344,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -2367,7 +2381,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -2377,7 +2391,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -2387,7 +2401,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -2404,7 +2418,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -2414,7 +2428,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -2424,7 +2438,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -2457,7 +2471,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -2502,27 +2516,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -2532,34 +2546,34 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2569,14 +2583,14 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -2613,12 +2627,12 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -2628,7 +2642,8 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2650,22 +2665,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -2675,7 +2691,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -2687,17 +2703,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -2724,7 +2740,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -2761,33 +2777,32 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DAS (1CM)                          </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DAS (1CM)
- (1CM)                   </t>
-        </is>
-      </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -2799,33 +2814,32 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DAS (1CM)
- (1CM)                   </t>
-        </is>
-      </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -2853,7 +2867,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -2898,70 +2912,66 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2971,15 +2981,14 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)
- (5BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -3009,44 +3018,39 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)
- (5BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)
- (5BCA B)  </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3058,24 +3062,22 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)
- (5BCA B)  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3085,7 +3087,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3097,7 +3099,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -3107,7 +3109,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                       </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3122,7 +3124,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3134,7 +3136,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -3171,7 +3173,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -3191,12 +3193,13 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -3208,7 +3211,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -3228,12 +3231,13 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -3261,7 +3265,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -3306,7 +3310,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -3326,24 +3330,24 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -3358,29 +3362,29 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3CM)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -3410,30 +3414,29 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3CM)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3CM)
- (3CM)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3448,14 +3451,14 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -3465,18 +3468,17 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3CM)
- (3CM)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -3493,7 +3495,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -3513,7 +3515,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -3530,7 +3532,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -3567,27 +3569,28 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3604,17 +3607,18 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -3624,7 +3628,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -3657,7 +3661,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -3702,27 +3706,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -3732,29 +3738,29 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3769,14 +3775,14 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -3806,30 +3812,29 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3839,35 +3844,34 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3877,8 +3881,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3890,17 +3893,19 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3910,13 +3915,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3928,7 +3932,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -3965,7 +3969,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -3985,12 +3989,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -4002,7 +4006,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -4022,12 +4026,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -4055,7 +4059,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -4100,7 +4104,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -4110,12 +4114,12 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -4125,19 +4129,19 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -4147,12 +4151,12 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -4162,19 +4166,19 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -4211,27 +4215,27 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -4241,19 +4245,19 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">WT (1BCA A)                        </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4285,7 +4289,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -4305,7 +4309,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -4322,7 +4326,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -4359,28 +4363,28 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">WT (1BCA A)
+ (1BCA A)              </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -4397,28 +4401,28 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (1BCA A)                        </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">WT (1BCA A)
+ (1BCA A)              </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -4451,7 +4455,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -4496,56 +4500,54 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -4555,24 +4557,24 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -4602,25 +4604,24 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -4635,34 +4636,34 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -4672,7 +4673,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -4684,18 +4685,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -4722,7 +4722,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -4759,22 +4759,22 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -4796,22 +4796,22 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -4849,7 +4849,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -4894,23 +4894,22 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -4932,18 +4931,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -4958,7 +4956,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)                       </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -4970,7 +4968,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -5000,19 +4998,20 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)
+ (5BCA B)             </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5022,8 +5021,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5038,14 +5036,15 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)
+ (5BCA B)             </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -5060,8 +5059,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -5083,7 +5081,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -5093,7 +5091,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -5103,12 +5101,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)                       </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -5120,7 +5118,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -5157,12 +5155,12 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -5194,12 +5192,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -5247,7 +5245,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -5292,22 +5290,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -5322,24 +5321,25 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -5349,24 +5349,24 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -5403,12 +5403,12 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5440,7 +5440,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -5450,22 +5450,23 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -5477,7 +5478,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -5487,7 +5488,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -5497,12 +5498,13 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -5514,7 +5516,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -5551,7 +5553,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -5576,7 +5578,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -5588,7 +5590,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -5613,7 +5615,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -5641,7 +5643,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -5686,7 +5688,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -5701,29 +5703,30 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">WAD (3CS)
+ (3CS)                   </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -5738,29 +5741,30 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">WAD (3CS)
+ (3CS)                   </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -5797,22 +5801,22 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (3CS)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (3CS)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5822,19 +5826,20 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)
+ (1CS)                   </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -5849,49 +5854,50 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)
+ (1CS)                   </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5908,7 +5914,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -5945,17 +5951,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -5965,8 +5971,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -5983,7 +5988,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -5993,18 +5998,17 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -6037,7 +6041,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -6082,7 +6086,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -6097,7 +6101,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -6107,19 +6111,19 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -6134,7 +6138,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -6144,19 +6148,19 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -6186,14 +6190,14 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -6208,7 +6212,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -6223,14 +6227,14 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -6245,7 +6249,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -6260,14 +6264,14 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -6287,7 +6291,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6304,7 +6308,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -6341,23 +6345,22 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -6379,18 +6382,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -6433,7 +6435,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -6478,32 +6480,34 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)                        </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -6515,44 +6519,46 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">PY (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -6582,29 +6588,29 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -6626,27 +6632,27 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6663,7 +6669,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -6683,7 +6689,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6700,7 +6706,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -6737,7 +6743,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -6762,7 +6768,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -6774,7 +6780,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -6799,7 +6805,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -6827,7 +6833,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -6872,7 +6878,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -6887,30 +6893,31 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve">MM (5BCA A)
+MM (5BCA B)            </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">MM (5BCA A)
+MM (5BCA B)            </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -6925,30 +6932,29 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)
- (3BCA A)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA A)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -6978,34 +6984,34 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DA (5CME)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DA (5CME)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DA (5CME)                          </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -7022,7 +7028,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -7037,17 +7043,18 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">DA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -7059,27 +7066,30 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MM (5BCA A)
+MM (5BCA B)            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MM (5BCA A)
+MM (5BCA B)            </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -7096,7 +7106,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -7133,18 +7143,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -7171,18 +7180,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -7225,7 +7233,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -7270,33 +7278,33 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -7308,7 +7316,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -7323,30 +7331,30 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -7383,33 +7391,33 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)
+ (5BCA B)              </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -7421,45 +7429,45 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">MA (5BCA B)
+ (5BCA B)              </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -7469,7 +7477,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -7479,12 +7487,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -7496,7 +7504,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -7533,7 +7541,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -7553,12 +7561,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -7570,7 +7578,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -7590,12 +7598,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -7623,7 +7631,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -7668,17 +7676,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -7693,7 +7701,8 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -7705,7 +7714,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -7720,7 +7729,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -7730,20 +7739,20 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)
- (5BCA B)             </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -7773,15 +7782,14 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)
- (5BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -7791,12 +7799,12 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -7806,7 +7814,8 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)
+ (5BCA A)              </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -7818,44 +7827,45 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)
+ (5BCA A)              </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -7865,7 +7875,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -7875,12 +7885,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -7892,7 +7902,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -7929,7 +7939,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -7954,7 +7964,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -7966,7 +7976,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -7991,7 +8001,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -8019,7 +8029,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -8064,18 +8074,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -8090,7 +8099,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -8102,18 +8111,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8128,19 +8136,19 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -8177,23 +8185,22 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -8215,7 +8222,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -8225,13 +8232,12 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -8241,7 +8247,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -8253,7 +8259,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -8263,17 +8269,17 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -8290,7 +8296,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -8327,27 +8333,28 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">PSD (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -8364,17 +8371,18 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">PSD (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -8384,7 +8392,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -8417,7 +8425,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -8462,7 +8470,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -8477,13 +8485,12 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)
- (3CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -8500,7 +8507,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -8515,13 +8522,12 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)
- (3CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -8531,14 +8537,14 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -8568,29 +8574,29 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)                          </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -8605,14 +8611,14 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
@@ -8622,7 +8628,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -8632,7 +8638,7 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -8649,12 +8655,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -8669,7 +8675,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -8686,7 +8692,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -8723,33 +8729,34 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -8761,18 +8768,18 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -8782,12 +8789,13 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -8815,7 +8823,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -8860,12 +8868,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -8885,56 +8893,56 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -8964,78 +8972,76 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (5BCA B)                          </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA A)                          </t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)
- (5BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -9047,18 +9053,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9068,8 +9073,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)
- (5BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -9086,7 +9090,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -9123,12 +9127,12 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -9138,7 +9142,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -9148,7 +9152,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -9160,12 +9164,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -9175,7 +9179,7 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -9185,7 +9189,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -9213,7 +9217,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -9258,29 +9262,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL (5BCA A)
-MUL (5BCA B)          </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL (5BCA A)
-MUL (5BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -9290,29 +9292,29 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -9327,14 +9329,14 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -9371,23 +9373,22 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL (5BCA A)
-MUL (5BCA B)          </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -9397,7 +9398,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -9409,33 +9410,32 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)                          </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)                          </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -9447,13 +9447,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL (5BCA A)
-MUL (5BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -9468,8 +9467,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -9486,7 +9484,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -9523,12 +9521,12 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -9543,12 +9541,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -9560,7 +9558,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -9580,12 +9578,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -9613,7 +9611,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -9658,7 +9656,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -9668,12 +9666,12 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -9683,7 +9681,8 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -9695,7 +9694,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -9705,12 +9704,12 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -9725,14 +9724,15 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -9762,34 +9762,39 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)  </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -9799,39 +9804,42 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)  </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -9843,7 +9851,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -9853,17 +9861,17 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -9880,7 +9888,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -9917,28 +9925,27 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -9955,28 +9962,27 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -10009,7 +10015,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -10054,22 +10060,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -10091,22 +10098,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -10121,14 +10129,14 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -10158,19 +10166,19 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A)                        </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -10180,7 +10188,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A)                        </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -10202,32 +10210,33 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -10239,7 +10248,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -10249,7 +10258,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -10259,12 +10268,13 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -10276,7 +10286,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -10313,17 +10323,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -10333,12 +10343,13 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -10350,17 +10361,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -10370,12 +10381,13 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -10403,7 +10415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -10448,22 +10460,22 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -10478,29 +10490,29 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -10515,14 +10527,14 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -10559,23 +10571,22 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -10585,35 +10596,34 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -10623,7 +10633,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -10635,7 +10645,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -10645,7 +10655,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -10655,7 +10665,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -10672,7 +10682,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -10709,22 +10719,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -10734,7 +10745,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)                          </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -10746,22 +10757,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -10799,7 +10811,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -10844,7 +10856,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -10854,37 +10866,34 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
-        </is>
-      </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -10894,35 +10903,34 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -10952,21 +10960,19 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
- (5BCA A)
-BI (5BCA B)  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -10976,14 +10982,12 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -10993,26 +10997,24 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
- (5BCA A)
-BI (5BCA B)  </t>
+          <t xml:space="preserve">WT (1BCA B)                        </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -11022,12 +11024,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -11039,7 +11041,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -11049,7 +11051,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -11059,12 +11061,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -11076,7 +11078,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -11113,7 +11115,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -11123,7 +11125,8 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (1BCA B)
+ (1BCA B)              </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -11150,7 +11153,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -11160,12 +11163,13 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (1BCA B)
+ (1BCA B)              </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (1BCA B)                        </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -11203,7 +11207,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
@@ -11248,85 +11252,83 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">DAP (3CM)
+ (3CM)                   </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)
- (3BCA B)          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON (3BCA B)                    </t>
+          <t xml:space="preserve">DAP (3CM)
+ (3CM)                   </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -11363,17 +11365,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">DAP (3CM)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAP (3CM)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -11388,7 +11390,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -11400,24 +11402,24 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
@@ -11425,7 +11427,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -11437,7 +11439,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
@@ -11447,12 +11449,12 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11474,7 +11476,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -11511,22 +11513,22 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1CS)                             </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -11548,22 +11550,22 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1CS)                             </t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">

--- a/teachertimetable.xlsx
+++ b/teachertimetable.xlsx
@@ -7,34 +7,34 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR HUBERT SHANTHAN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SHAMINE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SMERA" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANDEEP J" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NEWBEGIN" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SREEJA" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR FABIOLA HAZEL POHRMEN" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANGEETHA GOVINDA" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAMAMURTHY B" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VIJAY ARPUTHARAJ" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR LOKESHWARAN" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MOHANA PRIYA T" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR ROHINI V" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NISMON RIO R" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAN KN" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SAGAYA AURELIA P" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CYNTHIA" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR KIRUBANAND V B" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAINA" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANJUNATHA HIREMATH" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR BEAULAH SOUNDARABAI P" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAKUMAR K" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RESMI KR" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AMRUTHA" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANASA" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VINEETHA KR" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AROKIA PAUL RAJAN R" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CHANTI" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CHANTI" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RESMI KR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAN KN" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR LOKESHWARAN" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VIJAY ARPUTHARAJ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AMRUTHA" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR BEAULAH SOUNDARABAI P" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR AROKIA PAUL RAJAN R" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR ROHINI V" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAMAMURTHY B" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANASA" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SHAMINE" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR HUBERT SHANTHAN" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SMERA" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SARAVANAKUMAR K" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MOHANA PRIYA T" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NEWBEGIN" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANGEETHA GOVINDA" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR MANJUNATHA HIREMATH" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR VINEETHA KR" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SAGAYA AURELIA P" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR FABIOLA HAZEL POHRMEN" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR NISMON RIO R" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR CYNTHIA" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR RAINA" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SREEJA" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR SANDEEP J" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DR KIRUBANAND V B" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,18 +530,17 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -568,18 +567,17 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -589,7 +587,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
     </row>
@@ -626,7 +624,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
     </row>
@@ -638,32 +636,32 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)                          </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -680,7 +678,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -695,7 +693,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -712,7 +710,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -727,7 +725,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -786,17 +784,19 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -806,8 +806,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -824,17 +823,19 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">GA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -844,8 +845,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -928,29 +928,28 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)                        </t>
+          <t xml:space="preserve">DAP (3CM)
+ (3CM)                   </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
@@ -967,29 +966,28 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)                        </t>
+          <t xml:space="preserve">DAP (3CM)
+ (3CM)                   </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                       </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
@@ -1026,8 +1024,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)
- (5BCA A)             </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -1039,27 +1036,22 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)
- (5BCA B)  </t>
+          <t xml:space="preserve">DAP (3CM)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">DAP (3CM)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -1069,8 +1061,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)
- (5BCA A)             </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -1082,15 +1073,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)
- (5BCA B)  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5BCA A)
-GA (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1142,7 +1130,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1196,7 +1184,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1233,7 +1221,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -1331,17 +1319,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -1351,7 +1339,8 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -1378,7 +1367,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -1388,12 +1377,13 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
         </is>
       </c>
     </row>
@@ -1442,7 +1432,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -1452,7 +1442,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1462,7 +1452,8 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)
+ (5BCA B)              </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -1479,7 +1470,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1489,22 +1480,23 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">MA (3BCA A)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">MA (5BCA B)
+ (5BCA B)              </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
     </row>
@@ -1521,7 +1513,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1531,12 +1523,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">MA (5BCA B)                        </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1595,7 +1587,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1605,14 +1597,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -1634,7 +1624,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1644,14 +1634,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -1734,23 +1722,22 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)                        </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -1772,29 +1759,27 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)                        </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">PRJ (5BCA B)                       </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1831,8 +1816,8 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">PRJ (5BCA B)
+ (5BCA B)             </t>
         </is>
       </c>
     </row>
@@ -1844,12 +1829,12 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1869,7 +1854,8 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">PRJ (5BCA B)
+ (5BCA B)             </t>
         </is>
       </c>
     </row>
@@ -1881,12 +1867,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)                          </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1906,7 +1892,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1938,7 +1924,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA B)                       </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1992,12 +1978,12 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -2029,7 +2015,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -2132,22 +2118,23 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">PY (3BCA B)                        </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -2169,22 +2156,23 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CS)                             </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">PY (3BCA B)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -2226,7 +2214,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2238,32 +2226,32 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A)                        </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)                          </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2280,7 +2268,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -2295,7 +2283,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -2332,7 +2320,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -2386,12 +2374,13 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -2401,12 +2390,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -2423,12 +2412,13 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -2438,12 +2428,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -2521,12 +2511,12 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -2536,17 +2526,17 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -2558,12 +2548,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2573,17 +2563,17 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -2620,7 +2610,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -2632,7 +2622,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -2642,8 +2632,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2653,12 +2642,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -2670,7 +2659,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2680,8 +2669,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">CN (5BCA A)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -2691,7 +2679,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -2713,7 +2701,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -2797,12 +2785,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -2834,12 +2822,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -2917,13 +2905,12 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -2938,12 +2925,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -2955,13 +2942,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2976,12 +2962,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -3018,7 +3004,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -3030,17 +3016,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3050,12 +3036,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -3067,17 +3053,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3087,7 +3073,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3109,7 +3095,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3178,7 +3164,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -3193,13 +3179,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -3216,7 +3201,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -3231,13 +3216,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -3325,17 +3309,18 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">PY (3BCA A)                        </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -3362,22 +3347,24 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">PY (3BCA A)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (1CM)
+ (1CM)                   </t>
         </is>
       </c>
     </row>
@@ -3414,7 +3401,8 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">WAD (1CM)
+ (1CM)                   </t>
         </is>
       </c>
     </row>
@@ -3436,7 +3424,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3451,7 +3439,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -3463,7 +3451,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (1CM)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3473,7 +3461,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3483,7 +3471,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3515,12 +3503,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3574,18 +3562,17 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">WAD (1CM)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -3595,7 +3582,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -3612,13 +3599,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -3633,7 +3619,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -3711,34 +3697,33 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -3750,17 +3735,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3775,7 +3760,8 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
     </row>
@@ -3812,7 +3798,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -3824,32 +3810,37 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)  </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA B)                          </t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -3861,17 +3852,20 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">BI (5BCA A)
+BI (5BCA B)            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)  </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3881,7 +3875,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3898,14 +3892,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS (5BCA A)
-CS (5BCA B)            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3974,7 +3966,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -3989,12 +3981,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -4011,7 +4003,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -4026,12 +4018,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -4114,7 +4106,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -4129,12 +4121,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -4151,7 +4143,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -4166,12 +4158,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
         </is>
       </c>
     </row>
@@ -4208,7 +4200,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -4220,7 +4212,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -4230,7 +4222,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -4245,7 +4237,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -4257,7 +4249,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)                        </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4267,7 +4259,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -4277,7 +4269,8 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (1BCA B)
+ (1BCA B)              </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -4314,7 +4307,8 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (1BCA B)
+ (1BCA B)              </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -4368,12 +4362,12 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (1BCA B)                        </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -4383,13 +4377,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)
- (1BCA A)              </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -4411,23 +4404,22 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)                        </t>
+          <t xml:space="preserve">WT (1BCA B)                        </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)
- (1BCA A)              </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -4505,17 +4497,18 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -4525,7 +4518,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -4542,12 +4535,13 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -4557,12 +4551,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -4604,7 +4598,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -4616,7 +4610,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -4626,7 +4620,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -4636,12 +4630,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -4663,7 +4657,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA B)                        </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -4673,7 +4667,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -4695,12 +4689,12 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -4774,7 +4768,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -4784,7 +4778,8 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -4811,7 +4806,7 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -4821,7 +4816,8 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -4899,27 +4895,29 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)                        </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -4936,27 +4934,29 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -4998,8 +4998,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)
- (5BCA B)             </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -5021,7 +5020,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5031,13 +5030,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)
- (5BCA B)             </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -5059,7 +5057,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -5069,7 +5067,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -5106,7 +5104,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -5295,28 +5293,27 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -5333,23 +5330,22 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -5359,7 +5355,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
     </row>
@@ -5408,7 +5404,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5418,7 +5414,8 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">MA (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5428,7 +5425,8 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)
+ (5BCA A)              </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -5445,7 +5443,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)                        </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -5455,23 +5453,24 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (3BCA B)
+ (3BCA B)              </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">MA (5BCA A)
+ (5BCA A)              </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
     </row>
@@ -5488,7 +5487,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -5498,13 +5497,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (5BCA A)                        </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -5578,7 +5576,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -5615,7 +5613,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -5703,13 +5701,12 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)
- (3CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -5741,13 +5738,12 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)
- (3CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -5806,12 +5802,12 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -5826,13 +5822,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -5864,13 +5859,12 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -5887,7 +5881,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -5897,7 +5891,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5956,22 +5950,23 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)                          </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -5993,22 +5988,23 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">OOP (1BCA A)                       </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -6091,12 +6087,12 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -6106,17 +6102,17 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -6128,12 +6124,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -6143,17 +6139,17 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -6227,7 +6223,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -6249,7 +6245,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -6259,12 +6255,12 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -6286,12 +6282,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6360,7 +6356,8 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -6370,7 +6367,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -6397,7 +6394,8 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -6407,7 +6405,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -6485,29 +6483,27 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -6524,29 +6520,27 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)                         </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)
- (3CS)                  </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -6588,7 +6582,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
     </row>
@@ -6600,32 +6594,32 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA B)                          </t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -6637,17 +6631,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -6657,7 +6651,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -6679,7 +6673,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -6758,17 +6752,18 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -6795,17 +6790,18 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA A)
+ (1BCA A)             </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -6883,34 +6879,34 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MM (5BCA A)
-MM (5BCA B)            </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MM (5BCA A)
-MM (5BCA B)            </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -6922,12 +6918,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -6942,12 +6938,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -6996,12 +6992,12 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -7011,7 +7007,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -7043,8 +7039,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -7054,7 +7049,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -7071,20 +7066,19 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MM (5BCA A)
-MM (5BCA B)            </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MM (5BCA A)
-MM (5BCA B)            </t>
+          <t xml:space="preserve">CS (5BCA A)
+CS (5BCA B)            </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -7094,7 +7088,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -7148,12 +7142,12 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -7168,7 +7162,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -7185,12 +7179,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -7205,7 +7199,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -7283,12 +7277,12 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -7303,8 +7297,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -7321,33 +7314,32 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)
- (3BCA A)              </t>
+          <t xml:space="preserve"> (3BCA A)                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -7384,7 +7376,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -7416,13 +7408,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)
- (5BCA B)              </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -7434,7 +7425,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -7444,23 +7435,22 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A)                        </t>
+          <t xml:space="preserve">CN (5BCA B)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)
- (5BCA B)              </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -7487,7 +7477,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -7556,7 +7546,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -7566,7 +7556,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -7593,7 +7583,7 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -7603,7 +7593,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -7681,17 +7671,18 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -7701,8 +7692,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -7719,17 +7709,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)
+ (3CM)                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CM)                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -7739,13 +7730,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)
- (3BCA B)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -7794,17 +7784,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -7814,13 +7804,13 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)
- (5BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
     </row>
@@ -7832,33 +7822,33 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B)                        </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)
- (5BCA A)              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
     </row>
@@ -7875,7 +7865,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CM)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -7885,7 +7875,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)                        </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -7964,7 +7954,8 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -8001,7 +7992,8 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">DCF (1CM)
+ (1CM)                   </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -8079,12 +8071,12 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -8116,12 +8108,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">CN (3BCA A)                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8141,7 +8133,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
     </row>
@@ -8178,7 +8170,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
     </row>
@@ -8190,17 +8182,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -8210,7 +8202,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -8232,12 +8224,12 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B)                        </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -8247,7 +8239,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -8274,12 +8266,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -8338,23 +8330,22 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1BCA B)                          </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PSD (1BCA B)                       </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -8376,23 +8367,22 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)
- (1BCA B)             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA A)                          </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1BCA B)                          </t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -8495,12 +8485,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -8532,12 +8522,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
         </is>
       </c>
     </row>
@@ -8574,7 +8564,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -8596,7 +8586,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -8611,7 +8601,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
@@ -8628,12 +8618,12 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (1BCA A)                        </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -8648,7 +8638,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
@@ -8660,7 +8650,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -8675,12 +8665,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WT (1BCA A)                        </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -8734,18 +8724,18 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">WT (1BCA A)
+ (1BCA A)              </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -8755,8 +8745,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -8773,18 +8762,18 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)                       </t>
+          <t xml:space="preserve">WT (1BCA A)
+ (1BCA A)              </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)
- (1BCA A)             </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -8794,8 +8783,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)
- (5CME)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -8873,12 +8861,13 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -8893,12 +8882,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -8910,12 +8899,13 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">JAVA (3CS)                         </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">JAVA (3CS)
+ (3CS)                  </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -8925,17 +8915,17 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
     </row>
@@ -8972,7 +8962,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
     </row>
@@ -8984,7 +8974,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -8994,7 +8984,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -9004,12 +8994,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -9031,7 +9021,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)                        </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -9041,7 +9031,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -9063,7 +9053,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9078,7 +9068,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -9147,12 +9137,13 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -9184,12 +9175,13 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -9267,17 +9259,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -9304,17 +9296,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -9378,17 +9370,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -9398,12 +9390,13 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
     </row>
@@ -9415,17 +9408,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -9435,12 +9428,13 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)
+ (1CS)                   </t>
         </is>
       </c>
     </row>
@@ -9457,7 +9451,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OOP (1BCA B)                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -9467,7 +9461,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF (1CS)                          </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -9526,7 +9520,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -9536,17 +9530,18 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -9563,7 +9558,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -9573,17 +9568,18 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">OOP (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -9666,23 +9662,24 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)                        </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -9704,28 +9701,29 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)
+ (3BCA A)              </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PY (3BCA A)                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)                       </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
     </row>
@@ -9762,7 +9760,8 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)
+ (5BCA A)             </t>
         </is>
       </c>
     </row>
@@ -9774,27 +9773,27 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)  </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
- (5BCA A)
-BI (5BCA B)  </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -9804,7 +9803,8 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)
+ (5BCA A)             </t>
         </is>
       </c>
     </row>
@@ -9816,20 +9816,20 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
-BI (5BCA B)            </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)  </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BI (5BCA A)
- (5BCA A)
-BI (5BCA B)  </t>
+          <t xml:space="preserve">GA (5BCA A)
+GA (5BCA B)            </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PRJ (5BCA A)                       </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -9930,17 +9930,17 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -9967,17 +9967,17 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -10065,23 +10065,24 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">MM (5BCA A)
+MM (5BCA B)            </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MM (5BCA A)
+MM (5BCA B)            </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -10091,7 +10092,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
@@ -10103,13 +10104,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)
- (3CM)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM)                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
         </is>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">DA (5CME)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -10188,7 +10188,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
@@ -10215,33 +10215,33 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DA (5CME)                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">DA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DA (5CME)                          </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
@@ -10253,28 +10253,30 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MM (5BCA A)
+MM (5BCA B)            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)                          </t>
+          <t xml:space="preserve">MM (5BCA A)
+MM (5BCA B)            </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DA (5CME)
+ (5CME)                  </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -10328,7 +10330,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -10343,13 +10345,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -10366,7 +10367,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -10381,13 +10382,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)
- (1CS)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -10465,17 +10465,18 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">WAD (3CS)
+ (3CS)                   </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -10490,7 +10491,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -10502,17 +10503,18 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3CS)                             </t>
+          <t xml:space="preserve">WAD (3CS)
+ (3CS)                   </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -10527,7 +10529,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I (BCOM-I)                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -10564,7 +10566,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA A)                          </t>
         </is>
       </c>
     </row>
@@ -10576,17 +10578,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">WAD (3CS)                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (3CS)                          </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -10596,12 +10598,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (5BCA A)                          </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -10613,7 +10615,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -10623,7 +10625,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve"> (3BCA B)                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -10633,7 +10635,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -10655,7 +10657,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -10665,7 +10667,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -10724,28 +10726,28 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)                          </t>
+          <t xml:space="preserve">DAS (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -10767,23 +10769,23 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)
- (1CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (1CS)
+ (1CS)                   </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -10876,17 +10878,17 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -10913,17 +10915,17 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (3CM)                             </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (3BCA B)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-II (BCOM-II)                  </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
     </row>
@@ -10960,7 +10962,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve"> (1CM)                             </t>
         </is>
       </c>
     </row>
@@ -10972,7 +10974,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -10992,12 +10994,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -11009,12 +11011,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA B)                        </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -11024,12 +11026,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA B)                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve"> (5BCA B)                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -11061,12 +11063,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1CM)                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -11120,28 +11122,28 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA B)
- (1BCA B)              </t>
+          <t xml:space="preserve">PSD (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (1BCA B)                       </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -11158,23 +11160,23 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (5CME)                            </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA B)
- (1BCA B)              </t>
+          <t xml:space="preserve">PSD (1BCA B)
+ (1BCA B)             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA B)                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1BCA A)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -11272,18 +11274,17 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)
- (3CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -11310,18 +11311,17 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)
- (3CM)                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III (BCOM-III)                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -11370,17 +11370,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)                          </t>
+          <t xml:space="preserve">OS (3BCA A)                        </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA A)                        </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -11395,7 +11395,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
@@ -11412,12 +11412,12 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS (3BCA A)                        </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> (1CS)                             </t>
         </is>
       </c>
     </row>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -11518,27 +11518,27 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (5CME)                            </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -11555,27 +11555,27 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> (5CME)                            </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> (1BCA B)                          </t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> (1BCA A)                          </t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (1BCA B)                          </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> (1CM)                             </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">

--- a/teachertimetable.xlsx
+++ b/teachertimetable.xlsx
@@ -449,7 +449,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>DR SANGEETHA GOVINDA	 Hours:14</t>
+          <t>DR MANASA	 Hours:17</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -518,12 +518,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">JAVA (3CM) </t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">JAVA (3CM) </t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)  </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -570,47 +570,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -674,47 +674,47 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -778,47 +778,47 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)      </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)      </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DR RESMI KR	 Hours:15</t>
+          <t>DR SARAVANAKUMAR K	 Hours:18</t>
         </is>
       </c>
       <c r="B13" s="2" t="n"/>
@@ -942,47 +942,47 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS) </t>
+          <t xml:space="preserve"> (5BCA B)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS) </t>
+          <t xml:space="preserve"> (5BCA B)</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
     </row>
@@ -994,47 +994,47 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -1046,47 +1046,47 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
     </row>
@@ -1150,47 +1150,47 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
     </row>
@@ -1202,47 +1202,47 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DCF (1CS)        </t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DCF (1CS)        </t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>DR BEAULAH SOUNDARABAI P	 Hours:16</t>
+          <t>DR SANGEETHA GOVINDA	 Hours:14</t>
         </is>
       </c>
       <c r="B25" s="2" t="n"/>
@@ -1366,47 +1366,47 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t xml:space="preserve"> (5BCA B)  </t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t xml:space="preserve"> (5BCA B)  </t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -1418,12 +1418,12 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
@@ -1470,47 +1470,47 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -1522,47 +1522,47 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -1626,47 +1626,47 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">MA (5BCA A)      </t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">MA (5BCA A)      </t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>DR SAGAYA AURELIA P	 Hours:12</t>
+          <t>DR BEAULAH SOUNDARABAI P	 Hours:16</t>
         </is>
       </c>
       <c r="B37" s="2" t="n"/>
@@ -1790,47 +1790,47 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t>DAS (1CS)</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DAS (1CS)</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)     </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)     </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">WAD (3CS)   </t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DAS (1CS)   </t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -1894,47 +1894,47 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WAD (3CS)</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WAD (3CS)</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t>DAS (1CS)</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -1946,47 +1946,47 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WAD (3CS)</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -1998,47 +1998,47 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -2050,47 +2050,47 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>DR KIRUBANAND V B	 Hours:16</t>
+          <t>DR SREEJA	 Hours:17</t>
         </is>
       </c>
       <c r="B49" s="2" t="n"/>
@@ -2214,47 +2214,47 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)  </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)  </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I51" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -2266,47 +2266,47 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="H52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -2318,47 +2318,47 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve">DCF (1CS) </t>
         </is>
       </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)  </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)  </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -2370,47 +2370,47 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -2422,47 +2422,47 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="H55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
     </row>
@@ -2474,47 +2474,47 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>DR LOKESHWARAN	 Hours:18</t>
+          <t>DR SARAVANAN KN	 Hours:15</t>
         </is>
       </c>
       <c r="B61" s="2" t="n"/>
@@ -2638,12 +2638,12 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">JAVA (3CS)  </t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">JAVA (3CS)  </t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -2690,12 +2690,12 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">JAVA (3CS)  </t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">JAVA (3CS)  </t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2742,12 +2742,12 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)   </t>
+          <t xml:space="preserve">PY (3BCA A) </t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)   </t>
+          <t xml:space="preserve">PY (3BCA A) </t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G66" s="3" t="inlineStr">
@@ -2846,47 +2846,47 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G67" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -2898,47 +2898,47 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>DR HUBERT SHANTHAN	 Hours:17</t>
+          <t>DR ROHINI V	 Hours:17</t>
         </is>
       </c>
       <c r="B73" s="2" t="n"/>
@@ -3062,49 +3062,47 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t>OS (3BCA A)</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I75" s="3" t="inlineStr">
         <is>
-          <t>WT (5CME)
- (5CME)</t>
+          <t xml:space="preserve"> (5CME)    </t>
         </is>
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
-          <t>WT (5CME)
- (5CME)</t>
+          <t xml:space="preserve"> (5CME)    </t>
         </is>
       </c>
     </row>
@@ -3116,12 +3114,12 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -3131,12 +3129,12 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">OS (3BCA A) </t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
@@ -3168,47 +3166,47 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)  </t>
+          <t xml:space="preserve">OS (3BCA A) </t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)  </t>
+          <t xml:space="preserve">DA (5CME)   </t>
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)  </t>
+          <t xml:space="preserve">DA (5CME)   </t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -3220,47 +3218,47 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="J78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -3334,17 +3332,17 @@
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free       </t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
           <t>MA (5BCA B)</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
+      <c r="F80" s="3" t="inlineStr">
         <is>
           <t>MA (5BCA B)</t>
-        </is>
-      </c>
-      <c r="F80" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G80" s="3" t="inlineStr">
@@ -3419,7 +3417,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>DR SMERA	 Hours:16</t>
+          <t>DR SHAMINE	 Hours:16</t>
         </is>
       </c>
       <c r="B85" s="2" t="n"/>
@@ -3488,47 +3486,47 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA B)   </t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA B)   </t>
         </is>
       </c>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -3540,12 +3538,12 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -3555,12 +3553,12 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="G88" s="3" t="inlineStr">
@@ -3575,12 +3573,12 @@
       </c>
       <c r="I88" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -3592,47 +3590,47 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA A)</t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)  </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)  </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -3644,47 +3642,47 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -3696,12 +3694,12 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -3721,7 +3719,7 @@
       </c>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H91" s="3" t="inlineStr">
@@ -3748,47 +3746,47 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)      </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="G92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)      </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="H92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="I92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="J92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
     </row>
@@ -3843,7 +3841,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>DR RAMAMURTHY B	 Hours:16</t>
+          <t>DR NEWBEGIN	 Hours:16</t>
         </is>
       </c>
       <c r="B97" s="2" t="n"/>
@@ -3912,47 +3910,49 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve"> (5CME)                </t>
         </is>
       </c>
       <c r="J99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve"> (5CME)                </t>
         </is>
       </c>
     </row>
@@ -3964,47 +3964,51 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)   </t>
+          <t>BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="H100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="I100" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">PSD (1BCA B)                     </t>
         </is>
       </c>
       <c r="J100" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">PSD (1BCA B)                     </t>
         </is>
       </c>
     </row>
@@ -4016,47 +4020,48 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I101" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CM)</t>
+          <t xml:space="preserve">DAS (1CM)              </t>
         </is>
       </c>
       <c r="J101" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CM)</t>
+          <t xml:space="preserve">DAS (1CM)              </t>
         </is>
       </c>
     </row>
@@ -4068,47 +4073,48 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">DAP (3CM)              </t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">DAP (3CM)              </t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -4120,47 +4126,48 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -4172,47 +4179,48 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)          </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)          </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -4267,7 +4275,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>DR NEWBEGIN	 Hours:16</t>
+          <t>DR SANDEEP J	 Hours:16</t>
         </is>
       </c>
       <c r="B109" s="2" t="n"/>
@@ -4336,49 +4344,47 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>CN (3BCA A)</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>CN (3BCA A)</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA B)  </t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA B)  </t>
         </is>
       </c>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -4390,51 +4396,47 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t>CN (3BCA A)</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t>CN (3BCA A)</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
- (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA A)  </t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
- (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA A)  </t>
         </is>
       </c>
       <c r="G112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -4446,48 +4448,47 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)              </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)              </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -4499,48 +4500,47 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)              </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)              </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="J114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -4552,48 +4552,47 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -4605,48 +4604,47 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="G116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="H116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="I116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="J116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
     </row>
@@ -4701,7 +4699,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>DR MANASA	 Hours:17</t>
+          <t>DR RESMI KR	 Hours:15</t>
         </is>
       </c>
       <c r="B121" s="2" t="n"/>
@@ -4770,47 +4768,47 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM) </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM) </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DAS (1CS) </t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">DAS (1CS) </t>
         </is>
       </c>
       <c r="G123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -4874,12 +4872,12 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -4894,12 +4892,12 @@
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">DA (5CME)  </t>
         </is>
       </c>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DA (5CME)  </t>
         </is>
       </c>
       <c r="H125" s="3" t="inlineStr">
@@ -4926,12 +4924,12 @@
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -4946,7 +4944,7 @@
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G126" s="3" t="inlineStr">
@@ -4978,47 +4976,47 @@
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -5035,22 +5033,22 @@
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free       </t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
           <t>MA (5BCA B)</t>
         </is>
       </c>
-      <c r="E128" s="3" t="inlineStr">
+      <c r="F128" s="3" t="inlineStr">
         <is>
           <t>MA (5BCA B)</t>
-        </is>
-      </c>
-      <c r="F128" s="3" t="inlineStr">
-        <is>
-          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="G128" s="3" t="inlineStr">
@@ -5125,7 +5123,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>DR ROHINI V	 Hours:15</t>
+          <t>DR AMRUTHA	 Hours:17</t>
         </is>
       </c>
       <c r="B133" s="2" t="n"/>
@@ -5194,47 +5192,48 @@
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t>OS (3BCA A)</t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MM (5BCA A)
+MM (5BCA B)</t>
         </is>
       </c>
       <c r="H135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)    </t>
+          <t xml:space="preserve">WT (1BCA A)            </t>
         </is>
       </c>
       <c r="J135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)    </t>
+          <t xml:space="preserve">WT (1BCA A)            </t>
         </is>
       </c>
     </row>
@@ -5246,47 +5245,48 @@
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A) </t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="G136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>MM (5BCA A)
+MM (5BCA B)</t>
         </is>
       </c>
       <c r="H136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">PSD (1BCA B)           </t>
         </is>
       </c>
       <c r="J136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">PSD (1BCA B)           </t>
         </is>
       </c>
     </row>
@@ -5298,47 +5298,48 @@
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>MM (5BCA A)
+MM (5BCA B)</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A) </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="G137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="H137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I137" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J137" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -5350,47 +5351,48 @@
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>MM (5BCA A)
+MM (5BCA B)</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="G138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I138" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J138" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -5402,47 +5404,47 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="G139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="H139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="I139" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="J139" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
     </row>
@@ -5454,47 +5456,47 @@
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">WAD (1CM)          </t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">WAD (1CM)          </t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="G140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="H140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="I140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="J140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
     </row>
@@ -5549,7 +5551,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>DR SREEJA	 Hours:17</t>
+          <t>DR CHANTI	 Hours:17</t>
         </is>
       </c>
       <c r="B145" s="2" t="n"/>
@@ -5618,47 +5620,49 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t xml:space="preserve">OOP (1BCA A)     </t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="G147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="H147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>GA (5CME)
+ (5CME)</t>
         </is>
       </c>
       <c r="J147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>GA (5CME)
+ (5CME)</t>
         </is>
       </c>
     </row>
@@ -5670,47 +5674,47 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">GA (5CME)   </t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -5722,47 +5726,47 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t xml:space="preserve">GA (5CME)   </t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -5774,47 +5778,47 @@
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">GA (5CME)   </t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="G150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="J150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -5826,47 +5830,47 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G151" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I151" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
       <c r="J151" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -5888,17 +5892,17 @@
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G152" s="3" t="inlineStr">
@@ -5973,7 +5977,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>DR VIJAY ARPUTHARAJ	 Hours:16</t>
+          <t>DR FABIOLA HAZEL POHRMEN	 Hours:16</t>
         </is>
       </c>
       <c r="B157" s="2" t="n"/>
@@ -6042,51 +6046,47 @@
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                     </t>
+          <t>CN (3BCA B)</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                     </t>
+          <t>CN (3BCA B)</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)
- (5BCA B)</t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)
- (5BCA B)</t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="G159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -6098,49 +6098,47 @@
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)           </t>
+          <t>CN (3BCA B)</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)           </t>
+          <t>CN (3BCA B)</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -6152,48 +6150,47 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)            </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)            </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
       <c r="J161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
     </row>
@@ -6205,48 +6202,47 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)            </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)            </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">DAS (1CM)  </t>
         </is>
       </c>
       <c r="G162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -6258,48 +6254,47 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">DAS (1CM)  </t>
         </is>
       </c>
       <c r="H163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -6311,48 +6306,47 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="G164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="H164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="I164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="J164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
     </row>
@@ -6407,7 +6401,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>DR VINEETHA KR	 Hours:17</t>
+          <t>DR RAINA	 Hours:16</t>
         </is>
       </c>
       <c r="B169" s="2" t="n"/>
@@ -6476,47 +6470,47 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM) </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM) </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DAS (1CS)</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t>DAS (1CS)</t>
         </is>
       </c>
       <c r="G171" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H171" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I171" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
       <c r="J171" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
     </row>
@@ -6528,47 +6522,47 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="G172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -6580,47 +6574,47 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
       <c r="J173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
     </row>
@@ -6632,47 +6626,47 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -6689,7 +6683,7 @@
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t>CN (5BCA B)</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6699,17 +6693,17 @@
       </c>
       <c r="E175" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F175" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G175" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>CN (5BCA B)</t>
         </is>
       </c>
       <c r="H175" s="3" t="inlineStr">
@@ -6741,32 +6735,32 @@
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>CN (5BCA B)</t>
         </is>
       </c>
       <c r="H176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>CN (5BCA B)</t>
         </is>
       </c>
       <c r="I176" s="3" t="inlineStr">
@@ -6831,7 +6825,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>DR CHANTI	 Hours:17</t>
+          <t>DR KIRUBANAND V B	 Hours:16</t>
         </is>
       </c>
       <c r="B181" s="2" t="n"/>
@@ -6900,49 +6894,47 @@
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)     </t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="G183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I183" s="3" t="inlineStr">
         <is>
-          <t>GA (5CME)
- (5CME)</t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
       <c r="J183" s="3" t="inlineStr">
         <is>
-          <t>GA (5CME)
- (5CME)</t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -6954,12 +6946,12 @@
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
@@ -6969,7 +6961,7 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F184" s="3" t="inlineStr">
@@ -6989,12 +6981,12 @@
       </c>
       <c r="I184" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J184" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -7006,47 +6998,47 @@
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
       <c r="G185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I185" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">DAS (1CM)  </t>
         </is>
       </c>
       <c r="J185" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">DAS (1CM)  </t>
         </is>
       </c>
     </row>
@@ -7058,47 +7050,47 @@
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I186" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J186" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -7110,47 +7102,47 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="G187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="H187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="I187" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="J187" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
     </row>
@@ -7162,47 +7154,47 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">WT (1BCA A)    </t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="G188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="H188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="I188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="J188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
     </row>
@@ -7257,7 +7249,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>DR SHAMINE	 Hours:18</t>
+          <t>DR MOHANA PRIYA T	 Hours:16</t>
         </is>
       </c>
       <c r="B193" s="2" t="n"/>
@@ -7326,47 +7318,47 @@
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)   </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="G195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
       <c r="J195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
     </row>
@@ -7378,47 +7370,47 @@
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="J196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -7430,47 +7422,47 @@
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="G197" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H197" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I197" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J197" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -7482,47 +7474,47 @@
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F198" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G198" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H198" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I198" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J198" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -7591,27 +7583,27 @@
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free     </t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
           <t>WAD (1CM)</t>
         </is>
       </c>
-      <c r="D200" s="3" t="inlineStr">
+      <c r="E200" s="3" t="inlineStr">
         <is>
           <t>WAD (1CM)</t>
         </is>
       </c>
-      <c r="E200" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free     </t>
-        </is>
-      </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="G200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="H200" s="3" t="inlineStr">
@@ -7681,7 +7673,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>DR AROKIA PAUL RAJAN R	 Hours:15</t>
+          <t>DR RAMAMURTHY B	 Hours:16</t>
         </is>
       </c>
       <c r="B205" s="2" t="n"/>
@@ -7750,47 +7742,47 @@
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B) </t>
+          <t xml:space="preserve">DAP (3CM)  </t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A) </t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
       <c r="J207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A) </t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -7802,12 +7794,12 @@
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -7817,12 +7809,12 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DAP (3CM)   </t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G208" s="3" t="inlineStr">
@@ -7837,12 +7829,12 @@
       </c>
       <c r="I208" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J208" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -7854,47 +7846,47 @@
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WAD (3CS)</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WAD (3CS)</t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I209" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -7906,47 +7898,47 @@
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I210" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J210" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -7958,47 +7950,47 @@
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B) </t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="E211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="G211" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="H211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="I211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="J211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
     </row>
@@ -8010,47 +8002,47 @@
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t xml:space="preserve">WAD (1CM)          </t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">WAD (1CM)          </t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="G212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="H212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="I212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="J212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
     </row>
@@ -8105,7 +8097,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>DR MOHANA PRIYA T	 Hours:16</t>
+          <t>DR SAGAYA AURELIA P	 Hours:12</t>
         </is>
       </c>
       <c r="B217" s="2" t="n"/>
@@ -8174,47 +8166,47 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I219" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve"> (5CME)     </t>
         </is>
       </c>
       <c r="J219" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve"> (5CME)     </t>
         </is>
       </c>
     </row>
@@ -8226,47 +8218,47 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I220" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -8278,47 +8270,47 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E221" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="F221" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="G221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -8330,47 +8322,47 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="G222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="J222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -8382,47 +8374,47 @@
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="E223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="F223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="G223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="H223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="I223" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="J223" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
     </row>
@@ -8434,47 +8426,47 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="F224" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="G224" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="H224" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="I224" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="J224" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
     </row>
@@ -8529,7 +8521,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>DR NISMON RIO R	 Hours:16</t>
+          <t>DR CYNTHIA	 Hours:16</t>
         </is>
       </c>
       <c r="B229" s="2" t="n"/>
@@ -8598,47 +8590,48 @@
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A) </t>
+          <t xml:space="preserve">CN (3BCA B)            </t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A) </t>
+          <t xml:space="preserve">CN (3BCA B)            </t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F231" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>CS (5BCA A)
+CS (5BCA B)</t>
         </is>
       </c>
       <c r="H231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -8650,47 +8643,48 @@
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A) </t>
+          <t xml:space="preserve">CN (3BCA B)            </t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A) </t>
+          <t xml:space="preserve">CN (3BCA B)            </t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G232" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t>CS (5BCA A)
+CS (5BCA B)</t>
         </is>
       </c>
       <c r="H232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -8702,47 +8696,48 @@
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A) </t>
+          <t>CS (5BCA A)
+CS (5BCA B)</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A) </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E233" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="G233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="H233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -8754,47 +8749,48 @@
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>CS (5BCA A)
+CS (5BCA B)</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I234" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J234" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -8806,47 +8802,47 @@
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A) </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA A) </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="D235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G235" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -8858,47 +8854,47 @@
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="D236" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">MA (5BCA A)    </t>
         </is>
       </c>
       <c r="F236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">MA (5BCA A)    </t>
         </is>
       </c>
       <c r="G236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="H236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="I236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="J236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
     </row>
@@ -8953,7 +8949,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>DR FABIOLA HAZEL POHRMEN	 Hours:16</t>
+          <t>DR HUBERT SHANTHAN	 Hours:15</t>
         </is>
       </c>
       <c r="B241" s="2" t="n"/>
@@ -9022,47 +9018,49 @@
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA B)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA B)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)  </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="F243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)  </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="G243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="H243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (5CME)
+ (5CME)</t>
         </is>
       </c>
       <c r="J243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (5CME)
+ (5CME)</t>
         </is>
       </c>
     </row>
@@ -9074,47 +9072,47 @@
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA B)</t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA B)</t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">WT (5CME)   </t>
         </is>
       </c>
       <c r="F244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -9126,47 +9124,47 @@
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">WT (5CME)  </t>
         </is>
       </c>
       <c r="F245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I245" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CM)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J245" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CM)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9178,47 +9176,47 @@
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">WT (5CME)  </t>
         </is>
       </c>
       <c r="F246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I246" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J246" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9230,12 +9228,12 @@
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
@@ -9255,7 +9253,7 @@
       </c>
       <c r="G247" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H247" s="3" t="inlineStr">
@@ -9265,12 +9263,12 @@
       </c>
       <c r="I247" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
       <c r="J247" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -9282,47 +9280,47 @@
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="F248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="G248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9377,7 +9375,7 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>DR SARAVANAN KN	 Hours:15</t>
+          <t>DR VINEETHA KR	 Hours:17</t>
         </is>
       </c>
       <c r="B253" s="2" t="n"/>
@@ -9446,47 +9444,47 @@
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)  </t>
+          <t xml:space="preserve">JAVA (3CM) </t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)  </t>
+          <t xml:space="preserve">JAVA (3CM) </t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="G255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9498,47 +9496,47 @@
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)  </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)  </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G256" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -9550,47 +9548,47 @@
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A) </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A) </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="F257" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="G257" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H257" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I257" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J257" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9602,47 +9600,47 @@
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F258" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="G258" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H258" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I258" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J258" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9654,47 +9652,47 @@
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="F259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="G259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9706,47 +9704,47 @@
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="F260" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="G260" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="H260" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I260" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J260" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9801,7 +9799,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>DR AMRUTHA	 Hours:17</t>
+          <t>DR MANJUNATHA HIREMATH	 Hours:12</t>
         </is>
       </c>
       <c r="B265" s="2" t="n"/>
@@ -9870,48 +9868,47 @@
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="F267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G267" s="3" t="inlineStr">
         <is>
-          <t>MM (5BCA A)
-MM (5BCA B)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)            </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)            </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -9923,48 +9920,47 @@
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G268" s="3" t="inlineStr">
         <is>
-          <t>MM (5BCA A)
-MM (5BCA B)</t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="H268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)           </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)           </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -9976,48 +9972,47 @@
       </c>
       <c r="B269" s="3" t="inlineStr">
         <is>
-          <t>MM (5BCA A)
-MM (5BCA B)</t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="D269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="F269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">DA (5CME) </t>
         </is>
       </c>
       <c r="G269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">DA (5CME) </t>
         </is>
       </c>
       <c r="H269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -10029,48 +10024,47 @@
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>MM (5BCA A)
-MM (5BCA B)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="F270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="G270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="H270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="I270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="J270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
     </row>
@@ -10134,47 +10128,47 @@
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="F272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="G272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="H272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="I272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="J272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
     </row>
@@ -10229,7 +10223,7 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>DR SANDEEP J	 Hours:16</t>
+          <t>DR NISMON RIO R	 Hours:16</t>
         </is>
       </c>
       <c r="B277" s="2" t="n"/>
@@ -10298,47 +10292,47 @@
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA A)</t>
+          <t xml:space="preserve">CN (3BCA A) </t>
         </is>
       </c>
       <c r="C279" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA A)</t>
+          <t xml:space="preserve">CN (3BCA A) </t>
         </is>
       </c>
       <c r="D279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)  </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="G279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -10350,47 +10344,47 @@
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA A)</t>
+          <t xml:space="preserve">CN (3BCA A) </t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA A)</t>
+          <t xml:space="preserve">CN (3BCA A) </t>
         </is>
       </c>
       <c r="D280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="H280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -10402,12 +10396,12 @@
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">PY (3BCA A) </t>
         </is>
       </c>
       <c r="C281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">PY (3BCA A) </t>
         </is>
       </c>
       <c r="D281" s="3" t="inlineStr">
@@ -10417,12 +10411,12 @@
       </c>
       <c r="E281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G281" s="3" t="inlineStr">
@@ -10437,12 +10431,12 @@
       </c>
       <c r="I281" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J281" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -10454,47 +10448,47 @@
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="J282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -10506,47 +10500,47 @@
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C283" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="H283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DCF (1CM)   </t>
         </is>
       </c>
       <c r="J283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DCF (1CM)   </t>
         </is>
       </c>
     </row>
@@ -10558,47 +10552,47 @@
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -10653,7 +10647,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>DR RAINA	 Hours:16</t>
+          <t>DR VIJAY ARPUTHARAJ	 Hours:16</t>
         </is>
       </c>
       <c r="B289" s="2" t="n"/>
@@ -10722,47 +10716,51 @@
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">PRJ (5BCA A)                     </t>
         </is>
       </c>
       <c r="C291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">PRJ (5BCA A)                     </t>
         </is>
       </c>
       <c r="D291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="E291" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t>GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)</t>
         </is>
       </c>
       <c r="F291" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t>GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)</t>
         </is>
       </c>
       <c r="G291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="H291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="I291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="J291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
     </row>
@@ -10774,47 +10772,49 @@
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t xml:space="preserve">PRJ (5BCA A)           </t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t xml:space="preserve">PRJ (5BCA A)           </t>
         </is>
       </c>
       <c r="D292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="F292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="G292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -10826,47 +10826,48 @@
       </c>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">PY (3BCA A)            </t>
         </is>
       </c>
       <c r="C293" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">PY (3BCA A)            </t>
         </is>
       </c>
       <c r="D293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="F293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -10878,47 +10879,48 @@
       </c>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">PY (3BCA A)            </t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">PY (3BCA A)            </t>
         </is>
       </c>
       <c r="D294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="F294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -10930,47 +10932,48 @@
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="C295" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G295" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -10982,47 +10985,48 @@
       </c>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F296" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G296" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -11077,7 +11081,7 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>DR CYNTHIA	 Hours:16</t>
+          <t>DR SMERA	 Hours:16</t>
         </is>
       </c>
       <c r="B301" s="2" t="n"/>
@@ -11146,48 +11150,47 @@
       </c>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)            </t>
+          <t xml:space="preserve">Free   </t>
         </is>
       </c>
       <c r="C303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)            </t>
+          <t xml:space="preserve">Free   </t>
         </is>
       </c>
       <c r="D303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free   </t>
         </is>
       </c>
       <c r="E303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free   </t>
         </is>
       </c>
       <c r="F303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free   </t>
         </is>
       </c>
       <c r="G303" s="3" t="inlineStr">
         <is>
-          <t>CS (5BCA A)
-CS (5BCA B)</t>
+          <t xml:space="preserve">Free   </t>
         </is>
       </c>
       <c r="H303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free   </t>
         </is>
       </c>
       <c r="I303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve"> (5CME)</t>
         </is>
       </c>
       <c r="J303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve"> (5CME)</t>
         </is>
       </c>
     </row>
@@ -11199,48 +11202,47 @@
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)            </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)            </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G304" s="3" t="inlineStr">
         <is>
-          <t>CS (5BCA A)
-CS (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -11252,48 +11254,47 @@
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>CS (5BCA A)
-CS (5BCA B)</t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="C305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="D305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t>CN (5BCA A)</t>
         </is>
       </c>
       <c r="G305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -11305,48 +11306,47 @@
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>CS (5BCA A)
-CS (5BCA B)</t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -11358,12 +11358,12 @@
       </c>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D307" s="3" t="inlineStr">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>CN (5BCA A)</t>
         </is>
       </c>
       <c r="H307" s="3" t="inlineStr">
@@ -11393,12 +11393,12 @@
       </c>
       <c r="I307" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DCF (1CM)  </t>
         </is>
       </c>
       <c r="J307" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DCF (1CM)  </t>
         </is>
       </c>
     </row>
@@ -11410,47 +11410,47 @@
       </c>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="D308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)    </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA B)    </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">CN (5BCA A)      </t>
         </is>
       </c>
       <c r="H308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">CN (5BCA A)      </t>
         </is>
       </c>
       <c r="I308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="J308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
     </row>
@@ -11505,7 +11505,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>DR SARAVANAKUMAR K	 Hours:16</t>
+          <t>DR LOKESHWARAN	 Hours:16</t>
         </is>
       </c>
       <c r="B313" s="2" t="n"/>
@@ -11574,47 +11574,47 @@
       </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)</t>
+          <t xml:space="preserve">WT (1BCA A) </t>
         </is>
       </c>
       <c r="J315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)</t>
+          <t xml:space="preserve">WT (1BCA A) </t>
         </is>
       </c>
     </row>
@@ -11626,12 +11626,12 @@
       </c>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D316" s="3" t="inlineStr">
@@ -11641,17 +11641,17 @@
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="H316" s="3" t="inlineStr">
@@ -11661,12 +11661,12 @@
       </c>
       <c r="I316" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="J316" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -11678,47 +11678,47 @@
       </c>
       <c r="B317" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">WAD (3CS)   </t>
         </is>
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">WAD (3CS)   </t>
         </is>
       </c>
       <c r="D317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -11730,47 +11730,47 @@
       </c>
       <c r="B318" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C318" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DCF (1CS)   </t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="J318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -11782,47 +11782,47 @@
       </c>
       <c r="B319" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C319" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="H319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -11834,47 +11834,47 @@
       </c>
       <c r="B320" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)        </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="H320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -11929,7 +11929,7 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>DR MANJUNATHA HIREMATH	 Hours:12</t>
+          <t>DR AROKIA PAUL RAJAN R	 Hours:17</t>
         </is>
       </c>
       <c r="B325" s="2" t="n"/>
@@ -11998,47 +11998,47 @@
       </c>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t xml:space="preserve">OS (3BCA B) </t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">WT (1BCA A) </t>
         </is>
       </c>
       <c r="J327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">WT (1BCA A) </t>
         </is>
       </c>
     </row>
@@ -12050,47 +12050,47 @@
       </c>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">OS (3BCA B) </t>
         </is>
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="J328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -12102,47 +12102,47 @@
       </c>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="J329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -12154,47 +12154,47 @@
       </c>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="J330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -12206,47 +12206,47 @@
       </c>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">OS (3BCA B) </t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="H331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I331" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J331" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -12258,47 +12258,47 @@
       </c>
       <c r="B332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="E332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="H332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>

--- a/teachertimetable.xlsx
+++ b/teachertimetable.xlsx
@@ -449,7 +449,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>DR MANASA	 Hours:17</t>
+          <t>DR AMRUTHA	 Hours:17</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -518,47 +518,48 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM) </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM) </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MM (5BCA A)
+MM (5BCA B)</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">WT (1BCA A)            </t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">WT (1BCA A)            </t>
         </is>
       </c>
     </row>
@@ -570,47 +571,48 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>MM (5BCA A)
+MM (5BCA B)</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">PSD (1BCA B)           </t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">PSD (1BCA B)           </t>
         </is>
       </c>
     </row>
@@ -622,47 +624,48 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MM (5BCA A)
+MM (5BCA B)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -674,47 +677,48 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MM (5BCA A)
+MM (5BCA B)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">DA (5CME)              </t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -726,47 +730,47 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
     </row>
@@ -778,47 +782,47 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
     </row>
@@ -873,7 +877,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DR SARAVANAKUMAR K	 Hours:18</t>
+          <t>DR RAMAMURTHY B	 Hours:18</t>
         </is>
       </c>
       <c r="B13" s="2" t="n"/>
@@ -957,12 +961,12 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)</t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
@@ -1009,12 +1013,12 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">DAP (3CM)   </t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
@@ -1098,47 +1102,47 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -1150,47 +1154,47 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
     </row>
@@ -1202,47 +1206,47 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t>BCOM-III (BCOM-III)</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">WAD (1CM)          </t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">WAD (1CM)          </t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)        </t>
+          <t xml:space="preserve">DCF (1CS)          </t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)        </t>
+          <t xml:space="preserve">DCF (1CS)          </t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free               </t>
         </is>
       </c>
     </row>
@@ -1297,7 +1301,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>DR SANGEETHA GOVINDA	 Hours:14</t>
+          <t>DR FABIOLA HAZEL POHRMEN	 Hours:18</t>
         </is>
       </c>
       <c r="B25" s="2" t="n"/>
@@ -1366,12 +1370,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>CN (3BCA B)</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>CN (3BCA B)</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1381,12 +1385,12 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)  </t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)  </t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
@@ -1401,7 +1405,7 @@
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1418,47 +1422,47 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t>CN (3BCA B)</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t>CN (3BCA B)</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -1470,47 +1474,47 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1546,7 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DAS (1CM)   </t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
@@ -1557,12 +1561,12 @@
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1603,7 @@
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DAS (1CM)  </t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
@@ -1626,47 +1630,47 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">WAD (1CM)      </t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)      </t>
+          <t xml:space="preserve">WAD (1CM)      </t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)      </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
     </row>
@@ -1721,7 +1725,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>DR BEAULAH SOUNDARABAI P	 Hours:16</t>
+          <t>DR SARAVANAN KN	 Hours:15</t>
         </is>
       </c>
       <c r="B37" s="2" t="n"/>
@@ -1790,47 +1794,47 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">JAVA (3CS)  </t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">JAVA (3CS)  </t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -1842,12 +1846,12 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">JAVA (3CS)  </t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">JAVA (3CS)  </t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1857,7 +1861,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
@@ -1867,7 +1871,7 @@
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)   </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr">
@@ -1877,12 +1881,12 @@
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -1894,47 +1898,47 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">PY (3BCA A) </t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">PY (3BCA A) </t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -1946,47 +1950,47 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -1998,47 +2002,47 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -2065,12 +2069,12 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
@@ -2145,7 +2149,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>DR SREEJA	 Hours:17</t>
+          <t>DR LOKESHWARAN	 Hours:16</t>
         </is>
       </c>
       <c r="B49" s="2" t="n"/>
@@ -2214,47 +2218,47 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">WT (1BCA A) </t>
         </is>
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">WT (1BCA A) </t>
         </is>
       </c>
     </row>
@@ -2266,47 +2270,47 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="H52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -2318,47 +2322,47 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t xml:space="preserve">WAD (3CS)   </t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">WAD (3CS)   </t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS) </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -2370,47 +2374,47 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">DCF (1CS)   </t>
         </is>
       </c>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2461,12 @@
       </c>
       <c r="I55" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -2569,7 +2573,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>DR SARAVANAN KN	 Hours:15</t>
+          <t>DR CYNTHIA	 Hours:16</t>
         </is>
       </c>
       <c r="B61" s="2" t="n"/>
@@ -2638,47 +2642,48 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)  </t>
+          <t xml:space="preserve">CN (3BCA B)            </t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)  </t>
+          <t xml:space="preserve">CN (3BCA B)            </t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>CS (5BCA A)
+CS (5BCA B)</t>
         </is>
       </c>
       <c r="H63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -2690,47 +2695,48 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)  </t>
+          <t xml:space="preserve">CN (3BCA B)            </t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CS)  </t>
+          <t xml:space="preserve">CN (3BCA B)            </t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G64" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t>CS (5BCA A)
+CS (5BCA B)</t>
         </is>
       </c>
       <c r="H64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -2742,47 +2748,48 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A) </t>
+          <t>CS (5BCA A)
+CS (5BCA B)</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A) </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">MA (3BCA B)            </t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">MA (3BCA B)            </t>
         </is>
       </c>
       <c r="G65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -2794,47 +2801,48 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>CS (5BCA A)
+CS (5BCA B)</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I66" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -2846,47 +2854,47 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -2898,47 +2906,47 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">MA (5BCA A)    </t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">MA (5BCA A)    </t>
         </is>
       </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
     </row>
@@ -2993,7 +3001,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>DR ROHINI V	 Hours:17</t>
+          <t>DR SANGEETHA GOVINDA	 Hours:14</t>
         </is>
       </c>
       <c r="B73" s="2" t="n"/>
@@ -3077,12 +3085,12 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>OS (3BCA A)</t>
+          <t xml:space="preserve"> (5BCA B)  </t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve"> (5BCA B)  </t>
         </is>
       </c>
       <c r="G75" s="3" t="inlineStr">
@@ -3097,12 +3105,12 @@
       </c>
       <c r="I75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)    </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -3134,7 +3142,7 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
@@ -3166,47 +3174,47 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA A) </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -3270,47 +3278,47 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -3322,47 +3330,47 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">MA (5BCA A)      </t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">MA (5BCA A)      </t>
         </is>
       </c>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="H80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="J80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
     </row>
@@ -3417,7 +3425,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>DR SHAMINE	 Hours:16</t>
+          <t>DR SREEJA	 Hours:17</t>
         </is>
       </c>
       <c r="B85" s="2" t="n"/>
@@ -3486,47 +3494,47 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)   </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -3538,47 +3546,47 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="H88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -3590,47 +3598,47 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t xml:space="preserve">DCF (1CS) </t>
         </is>
       </c>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H89" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I89" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J89" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -3642,47 +3650,47 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -3694,47 +3702,47 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="H91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
       <c r="J91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
     </row>
@@ -3746,47 +3754,47 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="G92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="H92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -3841,7 +3849,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>DR NEWBEGIN	 Hours:16</t>
+          <t>DR RAINA	 Hours:16</t>
         </is>
       </c>
       <c r="B97" s="2" t="n"/>
@@ -3910,49 +3918,47 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA B)</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA B)</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
       <c r="J99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)                </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
     </row>
@@ -3964,51 +3970,47 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
- (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
- (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J100" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)                     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -4020,48 +4022,47 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)              </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
       <c r="J101" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)              </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
     </row>
@@ -4073,48 +4074,47 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)              </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)              </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J102" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -4126,48 +4126,47 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>CN (5BCA B)</t>
         </is>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>CN (5BCA B)</t>
         </is>
       </c>
       <c r="H103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -4179,48 +4178,47 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t>BI (5BCA A)
-BI (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>CN (5BCA B)</t>
         </is>
       </c>
       <c r="H104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>CN (5BCA B)</t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -4275,7 +4273,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>DR SANDEEP J	 Hours:16</t>
+          <t>DR SMERA	 Hours:16</t>
         </is>
       </c>
       <c r="B109" s="2" t="n"/>
@@ -4344,47 +4342,47 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)  </t>
+          <t xml:space="preserve"> (5BCA B)</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA B)  </t>
+          <t xml:space="preserve"> (5BCA B)</t>
         </is>
       </c>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
       <c r="J111" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
     </row>
@@ -4396,47 +4394,47 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="J112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -4448,47 +4446,47 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t>CN (5BCA A)</t>
         </is>
       </c>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">DAS (1CM)  </t>
         </is>
       </c>
       <c r="J113" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">DAS (1CM)  </t>
         </is>
       </c>
     </row>
@@ -4500,47 +4498,47 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I114" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J114" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -4552,12 +4550,12 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -4577,7 +4575,7 @@
       </c>
       <c r="G115" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>CN (5BCA A)</t>
         </is>
       </c>
       <c r="H115" s="3" t="inlineStr">
@@ -4604,47 +4602,47 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="G116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">CN (5BCA A)      </t>
         </is>
       </c>
       <c r="H116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">CN (5BCA A)      </t>
         </is>
       </c>
       <c r="I116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="J116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
     </row>
@@ -4699,7 +4697,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>DR RESMI KR	 Hours:15</t>
+          <t>DR SARAVANAKUMAR K	 Hours:16</t>
         </is>
       </c>
       <c r="B121" s="2" t="n"/>
@@ -4768,47 +4766,47 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS) </t>
+          <t xml:space="preserve"> (5BCA B)</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS) </t>
+          <t xml:space="preserve"> (5BCA B)</t>
         </is>
       </c>
       <c r="G123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5CME)  </t>
         </is>
       </c>
     </row>
@@ -4820,47 +4818,47 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="G124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="J124" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -4872,47 +4870,47 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DAS (1CM)</t>
         </is>
       </c>
     </row>
@@ -4924,47 +4922,47 @@
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t>DAP (3CM)</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -4976,47 +4974,47 @@
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="G127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="H127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="J127" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
     </row>
@@ -5028,47 +5026,47 @@
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-II (BCOM-II)</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="G128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="H128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="J128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
     </row>
@@ -5123,7 +5121,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>DR AMRUTHA	 Hours:17</t>
+          <t>DR VINEETHA KR	 Hours:17</t>
         </is>
       </c>
       <c r="B133" s="2" t="n"/>
@@ -5192,48 +5190,47 @@
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">JAVA (3CM) </t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">JAVA (3CM) </t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="G135" s="3" t="inlineStr">
         <is>
-          <t>MM (5BCA A)
-MM (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)            </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J135" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)            </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -5245,48 +5242,47 @@
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G136" s="3" t="inlineStr">
         <is>
-          <t>MM (5BCA A)
-MM (5BCA B)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)           </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J136" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (1BCA B)           </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -5298,48 +5294,47 @@
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>MM (5BCA A)
-MM (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="G137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J137" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -5351,48 +5346,47 @@
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>MM (5BCA A)
-MM (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="G138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J138" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -5404,47 +5398,47 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="G139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J139" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -5456,47 +5450,47 @@
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)          </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)          </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="G140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="H140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -5551,7 +5545,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>DR CHANTI	 Hours:17</t>
+          <t>DR ROHINI V	 Hours:17</t>
         </is>
       </c>
       <c r="B145" s="2" t="n"/>
@@ -5620,49 +5614,47 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (1BCA A)     </t>
+          <t>OS (3BCA A)</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H147" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I147" s="3" t="inlineStr">
         <is>
-          <t>GA (5CME)
- (5CME)</t>
+          <t xml:space="preserve"> (5CME)    </t>
         </is>
       </c>
       <c r="J147" s="3" t="inlineStr">
         <is>
-          <t>GA (5CME)
- (5CME)</t>
+          <t xml:space="preserve"> (5CME)    </t>
         </is>
       </c>
     </row>
@@ -5674,12 +5666,12 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -5689,12 +5681,12 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">OS (3BCA A) </t>
         </is>
       </c>
       <c r="G148" s="3" t="inlineStr">
@@ -5709,12 +5701,12 @@
       </c>
       <c r="I148" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J148" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -5741,17 +5733,17 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)   </t>
+          <t xml:space="preserve">OS (3BCA A) </t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DA (5CME)   </t>
         </is>
       </c>
       <c r="G149" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DA (5CME)   </t>
         </is>
       </c>
       <c r="H149" s="3" t="inlineStr">
@@ -5793,12 +5785,12 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA (5CME)   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G150" s="3" t="inlineStr">
@@ -5813,12 +5805,12 @@
       </c>
       <c r="I150" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="J150" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -5830,47 +5822,47 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H151" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I151" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
       <c r="J151" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
     </row>
@@ -5882,47 +5874,47 @@
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J152" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -5977,7 +5969,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>DR FABIOLA HAZEL POHRMEN	 Hours:16</t>
+          <t>DR AROKIA PAUL RAJAN R	 Hours:17</t>
         </is>
       </c>
       <c r="B157" s="2" t="n"/>
@@ -6046,47 +6038,47 @@
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)  </t>
+          <t xml:space="preserve">OS (3BCA B) </t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)  </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="G159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">WT (1BCA A) </t>
         </is>
       </c>
       <c r="J159" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">WT (1BCA A) </t>
         </is>
       </c>
     </row>
@@ -6098,47 +6090,47 @@
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>CN (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">OS (3BCA B) </t>
         </is>
       </c>
       <c r="G160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="J160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -6150,47 +6142,47 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">DA (5CME)   </t>
         </is>
       </c>
       <c r="G161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">DA (5CME)   </t>
         </is>
       </c>
       <c r="H161" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I161" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CM)</t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="J161" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CM)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -6202,47 +6194,47 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">PY (3BCA B) </t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">PY (3BCA B) </t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)  </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="G162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -6254,47 +6246,47 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">OS (3BCA B) </t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)  </t>
+          <t>PSD (1BCA B)</t>
         </is>
       </c>
       <c r="H163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J163" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -6306,47 +6298,47 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J164" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -6401,7 +6393,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>DR RAINA	 Hours:16</t>
+          <t>DR MOHANA PRIYA T	 Hours:16</t>
         </is>
       </c>
       <c r="B169" s="2" t="n"/>
@@ -6485,12 +6477,12 @@
       </c>
       <c r="E171" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CS)</t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="G171" s="3" t="inlineStr">
@@ -6522,47 +6514,47 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5BCA A)   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="J172" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -6574,47 +6566,47 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="F173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>MA (3BCA B)</t>
         </is>
       </c>
       <c r="G173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H173" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I173" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CM)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J173" s="3" t="inlineStr">
         <is>
-          <t>DAS (1CM)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -6626,47 +6618,47 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J174" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -6683,7 +6675,7 @@
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -6703,7 +6695,7 @@
       </c>
       <c r="G175" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H175" s="3" t="inlineStr">
@@ -6713,12 +6705,12 @@
       </c>
       <c r="I175" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
       <c r="J175" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -6730,47 +6722,47 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WAD (1CM)</t>
         </is>
       </c>
       <c r="F176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="G176" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA B)</t>
+          <t>DCF (1CS)</t>
         </is>
       </c>
       <c r="H176" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J176" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -6825,7 +6817,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>DR KIRUBANAND V B	 Hours:16</t>
+          <t>DR VIJAY ARPUTHARAJ	 Hours:16</t>
         </is>
       </c>
       <c r="B181" s="2" t="n"/>
@@ -6894,47 +6886,51 @@
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">PRJ (5BCA A)                     </t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">PRJ (5BCA A)                     </t>
         </is>
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="E183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)  </t>
+          <t>GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)</t>
         </is>
       </c>
       <c r="F183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CS)  </t>
+          <t>GA (5BCA A)
+GA (5BCA B)
+ (5BCA B)</t>
         </is>
       </c>
       <c r="G183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="H183" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="I183" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="J183" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
     </row>
@@ -6946,47 +6942,49 @@
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t xml:space="preserve">PRJ (5BCA A)           </t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA A)</t>
+          <t xml:space="preserve">PRJ (5BCA A)           </t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="F184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="G184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J184" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -6998,47 +6996,48 @@
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">PY (3BCA A)            </t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">PY (3BCA A)            </t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="F185" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)  </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J185" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (1CM)  </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -7050,47 +7049,48 @@
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">PY (3BCA A)            </t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">PY (3BCA A)            </t>
         </is>
       </c>
       <c r="D186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="F186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J186" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -7102,47 +7102,48 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J187" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -7154,47 +7155,48 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A)    </t>
+          <t>GA (5BCA A)
+GA (5BCA B)</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J188" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -7249,7 +7251,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>DR MOHANA PRIYA T	 Hours:16</t>
+          <t>DR MANASA	 Hours:17</t>
         </is>
       </c>
       <c r="B193" s="2" t="n"/>
@@ -7318,47 +7320,47 @@
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">JAVA (3CM) </t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">JAVA (3CM) </t>
         </is>
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="G195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J195" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -7370,47 +7372,47 @@
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I196" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J196" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -7422,12 +7424,12 @@
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="D197" s="3" t="inlineStr">
@@ -7437,12 +7439,12 @@
       </c>
       <c r="E197" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F197" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G197" s="3" t="inlineStr">
@@ -7474,12 +7476,12 @@
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
@@ -7494,7 +7496,7 @@
       </c>
       <c r="F198" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G198" s="3" t="inlineStr">
@@ -7526,12 +7528,12 @@
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
@@ -7541,12 +7543,12 @@
       </c>
       <c r="E199" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F199" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G199" s="3" t="inlineStr">
@@ -7561,12 +7563,12 @@
       </c>
       <c r="I199" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J199" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -7578,47 +7580,47 @@
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>WAD (1CM)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G200" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="H200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -7673,7 +7675,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>DR RAMAMURTHY B	 Hours:16</t>
+          <t>DR NEWBEGIN	 Hours:16</t>
         </is>
       </c>
       <c r="B205" s="2" t="n"/>
@@ -7742,47 +7744,49 @@
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)  </t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="G207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H207" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I207" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve"> (5CME)                </t>
         </is>
       </c>
       <c r="J207" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA A)</t>
+          <t xml:space="preserve"> (5CME)                </t>
         </is>
       </c>
     </row>
@@ -7794,47 +7798,51 @@
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAP (3CM)   </t>
+          <t>BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>BI (5BCA A)
+ (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="G208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="H208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free                             </t>
         </is>
       </c>
       <c r="I208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">PSD (1BCA B)                     </t>
         </is>
       </c>
       <c r="J208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">PSD (1BCA B)                     </t>
         </is>
       </c>
     </row>
@@ -7846,47 +7854,48 @@
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">WAD (3CS)              </t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>WAD (3CS)</t>
+          <t xml:space="preserve">WAD (3CS)              </t>
         </is>
       </c>
       <c r="D209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J209" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -7898,47 +7907,48 @@
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">DAP (3CM)              </t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>DAP (3CM)</t>
+          <t xml:space="preserve">DAP (3CM)              </t>
         </is>
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J210" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -7950,47 +7960,48 @@
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="E211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J211" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -8002,47 +8013,48 @@
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>BCOM-III (BCOM-III)</t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)          </t>
+          <t>BI (5BCA A)
+BI (5BCA B)</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (1CM)          </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="F212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="G212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="H212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="I212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
       <c r="J212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free               </t>
+          <t xml:space="preserve">Free                   </t>
         </is>
       </c>
     </row>
@@ -8097,7 +8109,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>DR SAGAYA AURELIA P	 Hours:12</t>
+          <t>DR MANJUNATHA HIREMATH	 Hours:12</t>
         </is>
       </c>
       <c r="B217" s="2" t="n"/>
@@ -8166,47 +8178,47 @@
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E219" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -8218,47 +8230,47 @@
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="H220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I220" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J220" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -8270,47 +8282,47 @@
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>JAVA (3CM)</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t xml:space="preserve">DCF (1CM) </t>
         </is>
       </c>
       <c r="F221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (3BCA B) </t>
+          <t xml:space="preserve">DA (5CME) </t>
         </is>
       </c>
       <c r="G221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DA (5CME) </t>
         </is>
       </c>
       <c r="H221" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I221" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J221" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -8322,47 +8334,47 @@
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="F222" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA A)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="G222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="H222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="I222" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="J222" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
     </row>
@@ -8374,47 +8386,47 @@
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
       <c r="J223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free  </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8533,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>DR CYNTHIA	 Hours:16</t>
+          <t>DR NISMON RIO R	 Hours:16</t>
         </is>
       </c>
       <c r="B229" s="2" t="n"/>
@@ -8590,48 +8602,47 @@
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)            </t>
+          <t xml:space="preserve">CN (3BCA A) </t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)            </t>
+          <t xml:space="preserve">CN (3BCA A) </t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="G231" s="3" t="inlineStr">
         <is>
-          <t>CS (5BCA A)
-CS (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J231" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -8643,48 +8654,47 @@
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)            </t>
+          <t xml:space="preserve">CN (3BCA A) </t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA B)            </t>
+          <t xml:space="preserve">CN (3BCA A) </t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G232" s="3" t="inlineStr">
         <is>
-          <t>CS (5BCA A)
-CS (5BCA B)</t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="H232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J232" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -8696,48 +8706,47 @@
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>CS (5BCA A)
-CS (5BCA B)</t>
+          <t xml:space="preserve">PY (3BCA A) </t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">PY (3BCA A) </t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="F233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME)              </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J233" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -8749,48 +8758,47 @@
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t>CS (5BCA A)
-CS (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="J234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -8802,47 +8810,47 @@
       </c>
       <c r="B235" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">MA (3BCA A) </t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA A)</t>
+          <t xml:space="preserve">MA (3BCA A) </t>
         </is>
       </c>
       <c r="D235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="H235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J235" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -8854,47 +8862,47 @@
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
         <is>
-          <t>BCOM-I (BCOM-I)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)    </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (5BCA A)    </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J236" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free           </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -8949,7 +8957,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>DR HUBERT SHANTHAN	 Hours:15</t>
+          <t>DR SANDEEP J	 Hours:16</t>
         </is>
       </c>
       <c r="B241" s="2" t="n"/>
@@ -9018,49 +9026,47 @@
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t>CN (3BCA A)</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t>CN (3BCA A)</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="F243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="G243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H243" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I243" s="3" t="inlineStr">
         <is>
-          <t>WT (5CME)
- (5CME)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J243" s="3" t="inlineStr">
         <is>
-          <t>WT (5CME)
- (5CME)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9072,47 +9078,47 @@
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>CN (3BCA A)</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
         <is>
-          <t>PRJ (5BCA B)</t>
+          <t>CN (3BCA A)</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)   </t>
+          <t xml:space="preserve"> (5BCA A)  </t>
         </is>
       </c>
       <c r="F244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve"> (5BCA A)  </t>
         </is>
       </c>
       <c r="G244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J244" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9124,47 +9130,47 @@
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C245" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)  </t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="F245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="G245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J245" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -9176,47 +9182,47 @@
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (5CME)  </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="J246" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -9228,12 +9234,12 @@
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
@@ -9263,12 +9269,12 @@
       </c>
       <c r="I247" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J247" s="3" t="inlineStr">
         <is>
-          <t>WT (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -9280,47 +9286,47 @@
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="D248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="F248" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="G248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="H248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="I248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="J248" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
     </row>
@@ -9375,7 +9381,7 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>DR VINEETHA KR	 Hours:17</t>
+          <t>DR HUBERT SHANTHAN	 Hours:15</t>
         </is>
       </c>
       <c r="B253" s="2" t="n"/>
@@ -9444,47 +9450,49 @@
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM) </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (3CM) </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="F255" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="G255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="H255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (5CME)
+ (5CME)</t>
         </is>
       </c>
       <c r="J255" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (5CME)
+ (5CME)</t>
         </is>
       </c>
     </row>
@@ -9496,47 +9504,47 @@
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CS)</t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">WT (5CME)   </t>
         </is>
       </c>
       <c r="F256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J256" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -9548,12 +9556,12 @@
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
@@ -9563,12 +9571,12 @@
       </c>
       <c r="E257" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">WT (5CME)  </t>
         </is>
       </c>
       <c r="F257" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G257" s="3" t="inlineStr">
@@ -9600,12 +9608,12 @@
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
@@ -9615,12 +9623,12 @@
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">WT (5CME)  </t>
         </is>
       </c>
       <c r="F258" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G258" s="3" t="inlineStr">
@@ -9657,7 +9665,7 @@
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
@@ -9667,12 +9675,12 @@
       </c>
       <c r="E259" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F259" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G259" s="3" t="inlineStr">
@@ -9687,12 +9695,12 @@
       </c>
       <c r="I259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
       <c r="J259" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -9714,7 +9722,7 @@
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr">
@@ -9729,7 +9737,7 @@
       </c>
       <c r="G260" s="3" t="inlineStr">
         <is>
-          <t>MA (3BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H260" s="3" t="inlineStr">
@@ -9799,7 +9807,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>DR MANJUNATHA HIREMATH	 Hours:12</t>
+          <t>DR RESMI KR	 Hours:13</t>
         </is>
       </c>
       <c r="B265" s="2" t="n"/>
@@ -9868,12 +9876,12 @@
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C267" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
@@ -9883,12 +9891,12 @@
       </c>
       <c r="E267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t xml:space="preserve">DAS (1CS) </t>
         </is>
       </c>
       <c r="F267" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">DAS (1CS) </t>
         </is>
       </c>
       <c r="G267" s="3" t="inlineStr">
@@ -9920,12 +9928,12 @@
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
@@ -9945,7 +9953,7 @@
       </c>
       <c r="G268" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H268" s="3" t="inlineStr">
@@ -9972,47 +9980,47 @@
       </c>
       <c r="B269" s="3" t="inlineStr">
         <is>
-          <t>JAVA (3CM)</t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM) </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME) </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (5CME) </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J269" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free      </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -10024,47 +10032,47 @@
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J270" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -10076,47 +10084,47 @@
       </c>
       <c r="B271" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>JAVA (3CS)</t>
         </is>
       </c>
       <c r="C271" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="D271" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="E271" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="F271" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="G271" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="H271" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="I271" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
       <c r="J271" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CM)</t>
+          <t xml:space="preserve">Free      </t>
         </is>
       </c>
     </row>
@@ -10128,47 +10136,47 @@
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="F272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t>MA (5BCA A)</t>
         </is>
       </c>
       <c r="G272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J272" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free    </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -10223,7 +10231,7 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>DR NISMON RIO R	 Hours:16</t>
+          <t>DR KIRUBANAND V B	 Hours:16</t>
         </is>
       </c>
       <c r="B277" s="2" t="n"/>
@@ -10292,47 +10300,47 @@
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A) </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A) </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
       <c r="J279" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -10344,12 +10352,12 @@
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A) </t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (3BCA A) </t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="D280" s="3" t="inlineStr">
@@ -10369,7 +10377,7 @@
       </c>
       <c r="G280" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H280" s="3" t="inlineStr">
@@ -10396,47 +10404,47 @@
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A) </t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="C281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A) </t>
+          <t>PY (3BCA A)</t>
         </is>
       </c>
       <c r="D281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E281" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
       <c r="G281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J281" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -10448,47 +10456,47 @@
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PY (3BCA B)</t>
         </is>
       </c>
       <c r="D282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H282" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I282" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J282" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -10500,47 +10508,47 @@
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="C283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="D283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="E283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="F283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="G283" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA A)</t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="H283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="I283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)   </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="J283" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)   </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
     </row>
@@ -10552,47 +10560,47 @@
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>BCOM-I (BCOM-I)</t>
         </is>
       </c>
       <c r="D284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">WT (1BCA A)    </t>
         </is>
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="F284" s="3" t="inlineStr">
         <is>
-          <t>MA (5BCA B)</t>
+          <t xml:space="preserve">DCF (1CS)      </t>
         </is>
       </c>
       <c r="G284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">DCF (1CS)      </t>
         </is>
       </c>
       <c r="H284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="I284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
       <c r="J284" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free           </t>
         </is>
       </c>
     </row>
@@ -10647,7 +10655,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>DR VIJAY ARPUTHARAJ	 Hours:16</t>
+          <t>DR SAGAYA AURELIA P	 Hours:12</t>
         </is>
       </c>
       <c r="B289" s="2" t="n"/>
@@ -10716,51 +10724,47 @@
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)                     </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E291" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)
- (5BCA B)</t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="F291" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)
- (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve"> (5CME)     </t>
         </is>
       </c>
       <c r="J291" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                             </t>
+          <t xml:space="preserve"> (5CME)     </t>
         </is>
       </c>
     </row>
@@ -10772,49 +10776,47 @@
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)           </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (5BCA A)           </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F292" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J292" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -10826,48 +10828,47 @@
       </c>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)            </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)            </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E293" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">DA (5CME)   </t>
         </is>
       </c>
       <c r="G293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">DA (5CME)   </t>
         </is>
       </c>
       <c r="H293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J293" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -10879,48 +10880,47 @@
       </c>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)            </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">PY (3BCA A)            </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="G294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
       <c r="J294" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t>OOP (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -10932,48 +10932,47 @@
       </c>
       <c r="B295" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="C295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="D295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="E295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="F295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="G295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="H295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="I295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
       <c r="J295" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free  </t>
         </is>
       </c>
     </row>
@@ -10985,48 +10984,47 @@
       </c>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="D296" s="3" t="inlineStr">
         <is>
-          <t>GA (5BCA A)
-GA (5BCA B)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="F296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="G296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="H296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="I296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="J296" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                   </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
     </row>
@@ -11081,7 +11079,7 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>DR SMERA	 Hours:16</t>
+          <t>DR SHAMINE	 Hours:16</t>
         </is>
       </c>
       <c r="B301" s="2" t="n"/>
@@ -11150,47 +11148,47 @@
       </c>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="C303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t>PRJ (5BCA B)</t>
         </is>
       </c>
       <c r="D303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">DAS (1CS)   </t>
         </is>
       </c>
       <c r="F303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">DAS (1CS)   </t>
         </is>
       </c>
       <c r="G303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free   </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J303" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (5CME)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -11217,12 +11215,12 @@
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="F304" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve"> (5BCA A)   </t>
         </is>
       </c>
       <c r="G304" s="3" t="inlineStr">
@@ -11254,47 +11252,47 @@
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C305" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA A)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="F305" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA A)</t>
+          <t xml:space="preserve">MA (3BCA B) </t>
         </is>
       </c>
       <c r="G305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J305" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -11306,47 +11304,47 @@
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>PY (3BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="D306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="H306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="I306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
       <c r="J306" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>PSD (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -11358,12 +11356,12 @@
       </c>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free       </t>
+          <t>MA (3BCA A)</t>
         </is>
       </c>
       <c r="D307" s="3" t="inlineStr">
@@ -11383,7 +11381,7 @@
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>CN (5BCA A)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H307" s="3" t="inlineStr">
@@ -11393,12 +11391,12 @@
       </c>
       <c r="I307" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J307" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CM)  </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -11410,47 +11408,47 @@
       </c>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>BCOM-II (BCOM-II)</t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="D308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)      </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="H308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN (5BCA A)      </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="I308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
       <c r="J308" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free             </t>
+          <t xml:space="preserve">Free    </t>
         </is>
       </c>
     </row>
@@ -11505,7 +11503,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>DR LOKESHWARAN	 Hours:16</t>
+          <t>DR BEAULAH SOUNDARABAI P	 Hours:16</t>
         </is>
       </c>
       <c r="B313" s="2" t="n"/>
@@ -11574,47 +11572,47 @@
       </c>
       <c r="B315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">DAS (1CS)  </t>
         </is>
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A) </t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
       <c r="J315" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A) </t>
+          <t>WT (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -11626,12 +11624,12 @@
       </c>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>PRJ (5BCA A)</t>
         </is>
       </c>
       <c r="D316" s="3" t="inlineStr">
@@ -11641,7 +11639,7 @@
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">WAD (3CS)   </t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
@@ -11651,7 +11649,7 @@
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">DAS (1CS)   </t>
         </is>
       </c>
       <c r="H316" s="3" t="inlineStr">
@@ -11661,12 +11659,12 @@
       </c>
       <c r="I316" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="J316" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
     </row>
@@ -11678,47 +11676,47 @@
       </c>
       <c r="B317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)   </t>
+          <t>WAD (3CS)</t>
         </is>
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (3CS)   </t>
+          <t>WAD (3CS)</t>
         </is>
       </c>
       <c r="D317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t>DAS (1CS)</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J317" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -11730,47 +11728,47 @@
       </c>
       <c r="B318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WAD (3CS)</t>
         </is>
       </c>
       <c r="C318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="D318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (1CS)   </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="I318" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="J318" s="3" t="inlineStr">
         <is>
-          <t>OOP (1BCA B)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
     </row>
@@ -11807,7 +11805,7 @@
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H319" s="3" t="inlineStr">
@@ -11817,12 +11815,12 @@
       </c>
       <c r="I319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
       <c r="J319" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>DCF (1CM)</t>
         </is>
       </c>
     </row>
@@ -11834,47 +11832,47 @@
       </c>
       <c r="B320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t>MA (5BCA B)</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="J320" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free     </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
     </row>
@@ -11929,7 +11927,7 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>DR AROKIA PAUL RAJAN R	 Hours:17</t>
+          <t>DR CHANTI	 Hours:17</t>
         </is>
       </c>
       <c r="B325" s="2" t="n"/>
@@ -11998,47 +11996,49 @@
       </c>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="D327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B) </t>
+          <t xml:space="preserve">OOP (1BCA A)     </t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="H327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free             </t>
         </is>
       </c>
       <c r="I327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A) </t>
+          <t>GA (5CME)
+ (5CME)</t>
         </is>
       </c>
       <c r="J327" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (1BCA A) </t>
+          <t>GA (5CME)
+ (5CME)</t>
         </is>
       </c>
     </row>
@@ -12065,12 +12065,12 @@
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">GA (5CME)   </t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B) </t>
+          <t xml:space="preserve">Free        </t>
         </is>
       </c>
       <c r="G328" s="3" t="inlineStr">
@@ -12085,12 +12085,12 @@
       </c>
       <c r="I328" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J328" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">GA (5CME)   </t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
@@ -12137,12 +12137,12 @@
       </c>
       <c r="I329" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="J329" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
     </row>
@@ -12169,12 +12169,12 @@
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">GA (5CME)   </t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t>OOP (1BCA A)</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
@@ -12206,47 +12206,47 @@
       </c>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS (3BCA B) </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="D331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="E331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>PSD (1BCA B)</t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="H331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t xml:space="preserve">Free       </t>
         </is>
       </c>
       <c r="I331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
       <c r="J331" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free        </t>
+          <t>WT (1BCA B)</t>
         </is>
       </c>
     </row>
@@ -12278,12 +12278,12 @@
       </c>
       <c r="F332" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t>DCF (1CS)</t>
+          <t xml:space="preserve">Free     </t>
         </is>
       </c>
       <c r="H332" s="3" t="inlineStr">
